--- a/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_bread.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_bread.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656566-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Gluten-Free Bread</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656574-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cp5z74QDdNUB1Gbi2mC8Zn2ZwLA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/32600-5ad4003c12434693a8f79122817c5f0c.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23287/alisons-gluten-free-bread/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Alison's Gluten-Free Bread</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n12 \n\n\nYield:\n1 to 1 1/2 - pound loaf"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n⅓ cup egg whites\n\n\n1 tablespoon apple cider vinegar\n\n\n¼ cup canola oil\n\n\n¼ cup honey\n\n\n1 ½ cups warm skim milk\n\n\n1 teaspoon salt\n\n\n1 tablespoon xanthan gum\n\n\n½ cup tapioca flour\n\n\n¼ cup garbanzo bean flour\n\n\n¼ cup millet flour\n\n\n1 cup white rice flour\n\n\n1 cup brown rice flour\n\n\n1 tablespoon active dry yeast"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n⅓ cup egg whites\n\n\n1 tablespoon apple cider vinegar\n\n\n¼ cup canola oil\n\n\n¼ cup honey\n\n\n1 ½ cups warm skim milk\n\n\n1 teaspoon salt\n\n\n1 tablespoon xanthan gum\n\n\n½ cup tapioca flour\n\n\n¼ cup garbanzo bean flour\n\n\n¼ cup millet flour\n\n\n1 cup white rice flour\n\n\n1 cup brown rice flour\n\n\n1 tablespoon active dry yeast'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ingredients in the pan of the bread machine in the order recommended by the manufacturer. Select cycle; press Start. Five minutes into the cycle, check the consistency of the dough. Add additional rice flour or liquid if necessary."},{"recipe_directions":"When bread is finished, let cool for 10 to 15 minutes before removing from pan."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n6g \nFat\n\n\n38g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656580-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_guRuMtJAaF_poAFSUh3dyWB-fE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2047x0:2049x2):format(webp)/7127297-4b589d03daf54bc19e171ccc3c459ae9.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275879/gluten-free-hamburger-buns/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Gluten-Free Hamburger Buns</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n18 \n\n\nYield:\n18 buns"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons white sugar\n\n\n1 tablespoon active dry yeast\n\n\n2 cups warm water\n\n\n1 ½ cups rice flour\n\n\n1 ½ cups gluten-free oat flour\n\n\n¾ cup tapioca starch\n\n\n¾ cup cornstarch\n\n\n1 tablespoon xanthan gum\n\n\n1 teaspoon salt\n\n\n5  eggs\n\n\n½ cup canola oil\n\n\n1 tablespoon sesame seeds (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons white sugar\n\n\n1 tablespoon active dry yeast\n\n\n2 cups warm water\n\n\n1 ½ cups rice flour\n\n\n1 ½ cups gluten-free oat flour\n\n\n¾ cup tapioca starch\n\n\n¾ cup cornstarch\n\n\n1 tablespoon xanthan gum\n\n\n1 teaspoon salt\n\n\n5  eggs\n\n\n½ cup canola oil\n\n\n1 tablespoon sesame seeds (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 200 degrees F (95 degrees C)."},{"recipe_directions":"Dissolve sugar and yeast in warm water in a bowl. Let stand until yeast softens and begins to form a creamy foam, about 5 minutes."},{"recipe_directions":"Combine rice flour, oat flour, tapioca starch, cornstarch, xanthan gum, and salt in a mixing bowl; mix to combine. Add yeast mixture, eggs, and oil; mix using an electric mixer on high speed for 3 minutes."},{"recipe_directions":"Distribute batter evenly between between eighteen 5-inch pie tins. Place onto 2 large cookie sheets. Sprinkle buns with sesame seeds."},{"recipe_directions":"Allow to rise in the preheated warm oven, 30 to 40 minutes."},{"recipe_directions":"Set the oven temperature to 400 degrees F (200 degrees C) without removing the buns."},{"recipe_directions":"Bake in the hot oven for 15 minutes. Switch baking sheets on oven racks and continue to bake until golden, 12 to 15 minutes more."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Rolls and Buns"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n9g \nFat\n\n\n28g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656583-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mcXlQBQijOgQAGRhcsIvn4FJnFo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6892768-fdfadab24f32464eb9bbb72b5b2f7dfe.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245681/pan-de-queso-brazilian-cheese-buns/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pan de Queso (Brazilian Cheese Buns)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cheese buns"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup water\n\n\n½ cup milk\n\n\n¼ cup oil\n\n\n½ teaspoon salt\n\n\n1 ½ cups tapioca starch\n\n\n1  egg\n\n\n1 cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup water\n\n\n½ cup milk\n\n\n¼ cup oil\n\n\n½ teaspoon salt\n\n\n1 ½ cups tapioca starch\n\n\n1  egg\n\n\n1 cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease 2 baking sheets."},{"recipe_directions":"Bring water, milk, oil, and salt to boil in a large saucepan. Remove from heat; add tapioca starch and mix well. Let cool, 10 to 15 minutes."},{"recipe_directions":"Transfer tapioca mixture to a large bowl. Add egg and mix well to combine. Fold in Parmesan cheese and knead until dough is smooth but still sticky."},{"recipe_directions":"Scoop out 1 tablespoon of the dough and roll into a small ball; place on baking sheet. Repeat with remaining dough."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 20 minutes."},{"recipe_directions":"Manioc starch (\"Polvilho Dolce\") is traditionally used in this recipe. Use it instead of the tapioca if preferred."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"69\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656587-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c__a3-B4eVgFxwVO74dV_ZUkDKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4555306-7df495eb041a4c54875a1b32961b281d.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259764/best-whole-grain-gluten-free-bread-for-a-bread-machine/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Best Whole Grain Gluten-Free Bread for a Bread Machine</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n10 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup cornstarch\n\n\n½ cup millet flour\n\n\n½ cup tapioca starch\n\n\n¼ cup sweet rice flour\n\n\n¼ cup teff flour\n\n\n¼ cup ground flax\n\n\n2 tablespoons psyllium husk\n\n\n2 ½ teaspoons guar gum\n\n\n2 large eggs\n\n\n1 ⅔ cups warm water\n\n\n3 tablespoons canola oil\n\n\n1 teaspoon white vinegar\n\n\n2 ¾ teaspoons active dry yeast\n\n\n1 ½ teaspoons salt\n\n\n½ cup milk powder\n\n\n3 tablespoons white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cornstarch\n\n\n½ cup millet flour\n\n\n½ cup tapioca starch\n\n\n¼ cup sweet rice flour\n\n\n¼ cup teff flour\n\n\n¼ cup ground flax\n\n\n2 tablespoons psyllium husk\n\n\n2 ½ teaspoons guar gum\n\n\n2 large eggs\n\n\n1 ⅔ cups warm water\n\n\n3 tablespoons canola oil\n\n\n1 teaspoon white vinegar\n\n\n2 ¾ teaspoons active dry yeast\n\n\n1 ½ teaspoons salt\n\n\n½ cup milk powder\n\n\n3 tablespoons white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cornstarch, millet flour, tapioca flour, rice flour, teff flour, ground flax, psyllium husk, and guar gum in a bowl."},{"recipe_directions":"Place eggs, warm water, canola oil, vinegar, sugar, yeast, cornstarch mixture, salt, and milk in a bread machine pan in the order listed, or in the order listed by the manufacturer. Stir gently with a wooden spoon to combine yeast with the rest of the ingredients."},{"recipe_directions":"Run \"rapid bake\" cycle for 2 hours. Select \"dark\" crust setting; bake for 50 minutes."},{"recipe_directions":"I recommend the Black+Decker(TM) bread machine with a tall pan. The tall pans work well for kneading the dough. Use the quick or rapid cycle on your machine. You do not require a fancy or expensive machine for this gluten-free bread."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n7g \nFat\n\n\n39g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656590-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GZrx2byPfkMGnuV8YHcZz_UcY74=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1422275-15157d01a72c49009f11e4a59cdb32de.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229878/wonderful-gluten-free-white-bread/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Wonderful Gluten Free White Bread</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon active dry yeast\n\n\n3 tablespoons white sugar\n\n\n1 ¼ cups warm water\n\n\n1 ⅓ cups rice flour\n\n\n⅔ cup sorghum flour\n\n\n½ cup potato starch\n\n\n½ cup cornstarch\n\n\n⅓ cup vegetable oil\n\n\n3  eggs\n\n\n1 tablespoon xanthan gum\n\n\n1 ½ teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon active dry yeast\n\n\n3 tablespoons white sugar\n\n\n1 ¼ cups warm water\n\n\n1 ⅓ cups rice flour\n\n\n⅔ cup sorghum flour\n\n\n½ cup potato starch\n\n\n½ cup cornstarch\n\n\n⅓ cup vegetable oil\n\n\n3  eggs\n\n\n1 tablespoon xanthan gum\n\n\n1 ½ teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease a 9x5-inch loaf pan."},{"recipe_directions":"Dissolve yeast and sugar in warm water in a bowl. Let stand until the yeast softens and begins to form a creamy foam, about 5 to 10 minutes."},{"recipe_directions":"Combine yeast mixture, rice flour, sorghum flour, potato starch, cornstarch, vegetable oil, eggs, xanthan gum, and salt together in the bowl of a stand mixer; mix on medium speed until incorporated, about 2 minutes. Spoon dough into the prepared loaf pan. Smooth the top of dough with the back of a wet spoon."},{"recipe_directions":"Place dough in a warm place until it has risen just over the top of the loaf pan, about 1 hour."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bake in the preheated oven until loaf is medium golden brown, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n8g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656594-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qQRtuYJtZbtxH8si6nuuUEt8Mmw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/344326-c90b80e3faeb450182e6baba68094455.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/139275/gluten-free-irish-soda-bread/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Gluten-Free Irish Soda Bread</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups white rice flour\n\n\n½ cup tapioca flour\n\n\n½ cup white sugar\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n1  egg\n\n\n1 cup buttermilk"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups white rice flour\n\n\n½ cup tapioca flour\n\n\n½ cup white sugar\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n1  egg\n\n\n1 cup buttermilk'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 9 inch round cake pan."},{"recipe_directions":"Combine the rice flour, tapioca flour, sugar, baking soda, baking powder, and salt in a large bowl. In a separate bowl, whisk together egg and buttermilk . Make a well in the center of the dry ingredients and pour in the wet. Stir just until the dry ingredients are moistened. Pour into the cake pan."},{"recipe_directions":"Bake for 65 minutes in the preheated oven, or until a toothpick inserted into the center comes out clean. Cool on a wire rack, for 10 minutes before removing from the pan. Wrap bread in plastic wrap or aluminum foil and let stand overnight for the best flavor."},{"recipe_directions":"Remember to check all ingredients to be sure they are gluten safe."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n1g \nFat\n\n\n45g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656598-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2tABds917pAOHZ-_6T_Z9n8rlTE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2287463-1d948ac35f6344e3af8de4cd8620f5ce.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242430/ultimate-gluten-free-cornbread/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Ultimate Gluten-Free Cornbread</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n16 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n36 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  eggs\n\n\n1 ½ cups milk\n\n\n½ cup butter, melted\n\n\n1 tablespoon white vinegar\n\n\n2 cups cornmeal\n\n\n1 cup millet flour\n\n\n¼ cup white sugar\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n1 ½ cups milk\n\n\n½ cup butter, melted\n\n\n1 tablespoon white vinegar\n\n\n2 cups cornmeal\n\n\n1 cup millet flour\n\n\n¼ cup white sugar\n\n\n1 tablespoon baking powder\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Grease a 9x13-inch baking dish."},{"recipe_directions":"Beat eggs in a bowl; stir in milk, butter, and vinegar. Stir cornmeal, millet flour, sugar, baking powder, and salt into egg mixture until combined; spread batter into prepared baking dish."},{"recipe_directions":"Bake in preheated oven until golden brown, 16 to 20 minutes. Cool on wire rack for 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Cornbread Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n11g \nFat\n\n\n30g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656601-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Dm-DYHQD5bJb_nU8sLzA_EK7qIo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4450811-e76357854a44473c815f8c5a48c12f63.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236597/gluten-free-choc-chip-oatmeal-muffins/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Gluten-Free Choc Chip Oatmeal Muffins</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup packed brown sugar\n\n\n¼ cup butter, softened\n\n\n1  egg\n\n\n1 cup gluten-free all-purpose baking flour\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 pinch ground allspice\n\n\n1 cup applesauce\n\n\n1 cup rolled oats, or more to taste\n\n\n1 cup semisweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup packed brown sugar\n\n\n¼ cup butter, softened\n\n\n1  egg\n\n\n1 cup gluten-free all-purpose baking flour\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon baking powder\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 pinch ground allspice\n\n\n1 cup applesauce\n\n\n1 cup rolled oats, or more to taste\n\n\n1 cup semisweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease 12 muffin cups or line with paper muffin liners."},{"recipe_directions":"Beat brown sugar and butter together in a bowl; add egg and beat until creamy."},{"recipe_directions":"Whisk flour, cinnamon, baking powder, baking soda, salt, and allspice together in another bowl. Stir 1/2 the flour mixture into the butter mixture. Stir applesauce into butter mixture; mix well. Stir remaining 1/2 the flour mixture into butter mixture until just combined; add oats and chocolate chips. Pour muffin batter into prepared muffin cups."},{"recipe_directions":"Bake in the preheated oven until golden and the tops spring back when lightly pressed, about 25 minutes."},{"recipe_directions":"Make sure to use gluten-free oats to keep this recipe completely gluten-free."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Chocolate Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n9g \nFat\n\n\n30g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656606-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/67fY1mfYIFyKHf83QV6AFTHTfFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4998120-eae5c524669d4d8ca2ab6a041236d4b3.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228684/paleo-banana-bread/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Paleo Banana Bread</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 slices"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  serving cooking spray\n\n\n2 cups almond flour\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n2  eggs\n\n\n½ cup water\n\n\n1 teaspoon almond extract\n\n\n¼ cup agave syrup\n\n\n2  ripe bananas, mashed\n\n\n½ teaspoon vanilla bean paste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  serving cooking spray\n\n\n2 cups almond flour\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon baking soda\n\n\n2  eggs\n\n\n½ cup water\n\n\n1 teaspoon almond extract\n\n\n¼ cup agave syrup\n\n\n2  ripe bananas, mashed\n\n\n½ teaspoon vanilla bean paste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Spray loaf pan with cooking spray."},{"recipe_directions":"Mix together almond flour, ground cinnamon, and baking soda in a bowl."},{"recipe_directions":"Beat two eggs in a bowl. Mix in water, almond extract, agave syrup, mashed bananas, and vanilla bean paste. Add banana mixture to almond flour mixture; mix until no dry areas are visible. Pour batter into the prepared loaf pan."},{"recipe_directions":"Bake banana bread in the preheated oven until brown and crisp around the edges, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Fruit Bread Recipes"},{"recipe_tags":"Banana Bread"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656612-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RE-Ewqm24EqzVQteHb3BEF-G9ls=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/6578751-72797e20cd9f4b72ba6b1d9d9f364625.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273071/thin-crust-fathead-pizza-dough/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Thin-Crust Fathead Pizza Dough</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 slices"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons yeast\n\n\n2 tablespoons warm water\n\n\n1 ½ cups shredded part-skim mozzarella cheese\n\n\n1  large egg, lightly beaten\n\n\n1 cup blanched almond flour\n\n\n1 teaspoon xanthan gum\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons yeast\n\n\n2 tablespoons warm water\n\n\n1 ½ cups shredded part-skim mozzarella cheese\n\n\n1  large egg, lightly beaten\n\n\n1 cup blanched almond flour\n\n\n1 teaspoon xanthan gum\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Dissolve yeast in warm water in a bowl. Set aside for about 5 minutes."},{"recipe_directions":"Place mozzarella cheese into a microwave-safe bowl. Microwave for 90 seconds, stirring every 30 seconds until cheese is completely melted. Stir in yeast mixture and egg and stir to combine; mixture will not incorporate well at this point."},{"recipe_directions":"Stir in almond flour, xanthan gum, and salt. If mixture is difficult to mix, reheat in the microwave for 20-30 seconds to soften the cheese. Stir again until well incorporated. Using your hands, knead the dough for 2 minutes."},{"recipe_directions":"Place dough on baking sheet and press with your fingers into a thin crust, approximately 11-12 inches in diameter."},{"recipe_directions":"Bake in the preheated oven until crust is lightly browned, about 10 minutes. Remove from oven, top with your favorite pizza toppings, and return to the oven for 5 minutes, or until cheese is melted."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pizza Dough and Crust Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"212\nCalories\n\n\n16g \nFat\n\n\n7g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656617-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/U_fQWcvLk-inBdk8owAjCUodFXI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/5944676-a3bd4bb386be4b3ca7b9fb9cd962b668.jpg"
@@ -853,59 +1154,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267699/easy-gluten-free-bagels/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Easy Gluten-Free Bagels</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups almond flour\n\n\n1 tablespoon gluten-free baking powder\n\n\n1 teaspoon garlic salt\n\n\n2 ½ cups shredded mozzarella cheese\n\n\n2 ounces cream cheese, cubed\n\n\n2  eggs"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups almond flour\n\n\n1 tablespoon gluten-free baking powder\n\n\n1 teaspoon garlic salt\n\n\n2 ½ cups shredded mozzarella cheese\n\n\n2 ounces cream cheese, cubed\n\n\n2  eggs'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Mix almond flour, baking powder, and garlic salt together in a bowl."},{"recipe_directions":"Combine mozzarella cheese and cream cheese in a microwave-safe bowl. Heat in the microwave for 1 minute; remove and stir. Microwave for 1 minute more; remove and stir until well incorporated. Stir flour mixture and eggs into the melted cheese mixture, working quickly. Knead by hand until a sticky dough forms. Keep kneading and squeezing until dough is completely uniform, about 2 minutes."},{"recipe_directions":"Divide dough into 6 equal parts. Roll each into a long log, then press ends together in a bagel shape and place on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until bagels are golden, 10 to 14 minutes."},{"recipe_directions":"If you don't want to use the microwave, heat the cheeses in a double broiler on the stove over low heat, stirring frequently, until completely melted."},{"recipe_directions":"If the dough becomes hard before fully mixed, is too difficult to mix, or is still sticky after a couple minutes, you can reheat for 15 to 20 seconds to soften it. In that case, wash your hands and knead again. It is important for the dough to be completely uniform. You shouldn't have pieces of cheese separate from areas of almond flour. Keep kneading."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"364\nCalories\n\n\n28g \nFat\n\n\n10g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656622-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xvzURdMFYKjRnBbw9JL2UT65Z4o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2608309-9687f792029c4cc99e53983c6f375e93.jpg"
@@ -918,59 +1215,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264483/gluten-free-sourdough-starter/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Gluten-Free Sourdough Starter</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n4 days\n\n\nTotal Time:\n4 days 10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 sourdough starter"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups brown rice flour\n\n\n3 cups buckwheat flour\n\n\n  filtered water, at room temperature, as needed"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups brown rice flour\n\n\n3 cups buckwheat flour\n\n\n  filtered water, at room temperature, as needed'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together the brown rice flour and the buckwheat flour until well combined."},{"recipe_directions":"Day 1: Whisk together 1 cup of the flour mix and 3/4 cup filtered water in a glass jar. Stir well until smooth and no lumps remain. Cover with a piece of cheesecloth or a clean linen towel and let sit at room temperature (about 70 degrees F (21 degrees C)), far from drafts or direct sunlight. Do not cover with plastic wrap, the circulation of air is important. Every once in a while, stir the mixture with a fork or whisk. Check to see if small bubbles start to form in the mixture. These bubbles indicate that wild yeast is forming."},{"recipe_directions":"Day 2: As well as stirring, you will begin to feed the starter on day 2. In the morning, mix 1/4 cup of flour mixture and 3 tablespoons room-temperature filtered water. Once mixed well, add the flour-water mixture to the jar with the starter mixture. Stir well and continue to stir throughout the day if possible. Every 12 hours, add this same feeding mixture (1/4 cup flour plus 3 tablespoons water) to the mother mixture."},{"recipe_directions":"Day 3: By now, you should notice an overall sponge-like texture. If this is the case, your starter is ready to use. At this point, it should be kept in certain conditions to keep from over-growing. Keep it sealed, in the refrigerator."},{"recipe_directions":"If your starter has only a bit of foam at the top, but you notice a fragrant smell of yeast, these are good signs and could be that the room is too cool. Check to make sure the location is draft free. If you don't notice these minimal signs and a note a foul smell, discard starter and restart."},{"recipe_directions":"If your sponge is still very watery but has a sponge forming, mix well, take out 1 cup of the mixture, and discard (or use in another recipe) and feed the starter every 6 hours."},{"recipe_directions":"By day 4 your starter should be ready. Keep the starter covered in the refrigerator and feed very two weeks or each time you measure out any starter."},{"recipe_directions":"When not being used, your starter will need to be maintained. To feed: allow the starter to reach room temperature. Take out 1/2 cup of starter (use in a recipe, freeze, or discard) and add 1/2 cup of flour mix combined with 1/3 cup of water. Allow the starter to reach room temperature and allow to rest until the starter has begun to foam and bubble. Cover and put back in the fridge."},{"recipe_directions":"Every time you use your starter, add back the same amount that you use. For example, if you use 1/2 cup for a recipe, add 1/2 cup of mixture to replace the same amount."},{"recipe_directions":"Using brown rice flour alone will result in a weak yeast. Teff, quinoa, and sorghum flours are very nice and add unique flavors to the final starter. Tap water contains chlorine and can kill off the wild yeast. For this reason, it is best to use filtered water."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Sourdough Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"2708\nCalories\n\n\n23g \nFat\n\n\n571g \nCarbs\n\n\n75g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656628-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GgPaIGcfCflcj0wrMtiTJMPT8wk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5213405-304247115ee04c138a04805c571873f9.jpg"
@@ -983,59 +1276,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263129/best-gluten-free-pita-bread/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Best Gluten-Free Pita Bread</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 pita breads"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups gluten-free oat flour (such as Bob's Red Mill®)\n\n\n½ cup potato starch\n\n\n⅓ cup cornstarch\n\n\n⅓ cup tapioca flour\n\n\n2 tablespoons xanthan gum\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n1 cup warm milk\n\n\n1  egg\n\n\n¼ cup olive oil\n\n\n1 teaspoon apple cider vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 ¼ cups gluten-free oat flour (such as Bob's Red Mill®)\n\n\n½ cup potato starch\n\n\n⅓ cup cornstarch\n\n\n⅓ cup tapioca flour\n\n\n2 tablespoons xanthan gum\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n1 cup warm milk\n\n\n1  egg\n\n\n¼ cup olive oil\n\n\n1 teaspoon apple cider vinegar"}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine oat flour, potato starch, cornstarch, tapioca flour, xanthan gum, yeast, sugar, and salt in the bowl of a stand mixer; whisk until well mixed, about 1 minute."},{"recipe_directions":"Whisk milk, egg, olive oil, and vinegar together in a separate bowl until well combined, about 1 minute. Stir milk mixture in gradually to flour mixture on low speed; mix until a soft dough comes together, about 5 minutes."},{"recipe_directions":"Line 2 baking sheets with parchment paper. Divide dough into 6 equal pieces; roll each piece on a floured surface to a 6-inch circle. Place on the prepared baking sheets; cover with plastic wrap and set aside for 1 to 1 1/2 hours."},{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Heat a pizza stone in the oven."},{"recipe_directions":"Spray pita breads with water and place them straight on the hot pizza stone."},{"recipe_directions":"Bake in the preheated oven until puffed and lightly golden, 5 to 7 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n13g \nFat\n\n\n44g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656634-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pwL3kbOmhiuwK79DA36cWnHWFzA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(906x0:908x2):format(webp)/6615736-6556f31b74ae43c9b07b7054800cd33c.jpg"
@@ -1048,59 +1337,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273406/broccoli-pizza-crust/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Broccoli Pizza Crust</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 individual-sized crusts"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head broccoli, cut into florets\n\n\n½ cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1  egg, beaten\n\n\n¼ cup Italian-seasoned gluten-free bread crumbs\n\n\n2 cloves garlic, minced\n\n\n4 leaves fresh basil leaves, rolled and finely sliced \n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head broccoli, cut into florets\n\n\n½ cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1  egg, beaten\n\n\n¼ cup Italian-seasoned gluten-free bread crumbs\n\n\n2 cloves garlic, minced\n\n\n4 leaves fresh basil leaves, rolled and finely sliced \n\n\n1 teaspoon Italian seasoning\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n¼ teaspoon red pepper flakes (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a large baking sheet with parchment paper."},{"recipe_directions":"Place broccoli florets into a food processor and pulse until broccoli is riced. Transfer to a clean paper towel and squeeze out as much water as possible."},{"recipe_directions":"Place broccoli \"rice\", mozzarella cheese, Parmesan cheese, egg, bread crumbs, garlic, basil, Italian seasoning, salt, black pepper, and red pepper flakes into a large bowl and mix until well combined. Separate into 4 equal golf ball-sized balls. Shape carefully into 4 individual-sized crusts. Place on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until the bottom is lightly browned, about 30 minutes. Flip crusts and continue to bake until other side is golden brown, 10 to 12 minutes more."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pizza Dough and Crust Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n6g \nFat\n\n\n10g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656639-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3dV9fwRx_nyhJFGjftp4vy0loVs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/646415-5f1f336fb4e34c20aa8062040af7ec8e.jpg"
@@ -1113,59 +1398,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216789/gluten-free-danish/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Gluten Free Danish</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n12 danish"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups gluten-free pancake mix\n\n\n¼ cup butter, room temperature\n\n\n2 tablespoons white sugar\n\n\n⅔ cup milk\n\n\n½ teaspoon almond extract\n\n\n¼ cup raspberry jam\n\n\n⅔ cup confectioners' sugar\n\n\n2 tablespoons milk, or more as needed\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon almond extract"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 cups gluten-free pancake mix\n\n\n¼ cup butter, room temperature\n\n\n2 tablespoons white sugar\n\n\n⅔ cup milk\n\n\n½ teaspoon almond extract\n\n\n¼ cup raspberry jam\n\n\n⅔ cup confectioners' sugar\n\n\n2 tablespoons milk, or more as needed\n\n\n½ teaspoon vanilla extract\n\n\n¼ teaspoon almond extract"}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine the pancake mix, butter, and sugar; mix until crumbly. Stir in 2/3 cup milk and 1/2 teaspoon almond extract and mix until fully incorporated. The dough will be sticky."},{"recipe_directions":"Drop the dough by rounded tablespoons onto the baking sheet, spacing the dough about 2 inches apart. With the back of a teaspoon, make a shallow indentation in the center of each dough ball. Fill the centers with a teaspoon of jam."},{"recipe_directions":"Bake in the preheated oven until lightly browned, 10 to 12 minutes. Allow the pastries to cool."},{"recipe_directions":"Combine the confectioners' sugar, 3 tablespoons of milk, vanilla extract, and 1/4 teaspoon almond extract and mix until smooth. Drizzle the glaze over the Danish."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"343\nCalories\n\n\n8g \nFat\n\n\n65g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656646-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hdqqur2qhdTeHjvOXOw85LYhTN4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/4978321-dec02607d1b049e9837633922529b620.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233522/gluten-free-zucchini-bread/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Gluten-Free Zucchini Bread</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n10 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup diced zucchini\n\n\n½ cup canola oil\n\n\n2  eggs\n\n\n1 teaspoon gluten-free vanilla extract\n\n\n1 cup white sugar\n\n\n½ cup white rice flour\n\n\n½ cup sweet rice flour\n\n\n½ cup cornstarch\n\n\n2 tablespoons tapioca starch\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking soda\n\n\n½ teaspoon xanthan gum\n\n\n½ teaspoon salt"},{"recipe_ingredients":"1 tablespoon confectioners' sugar\n\n\n1 teaspoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup diced zucchini\n\n\n½ cup canola oil\n\n\n2  eggs\n\n\n1 teaspoon gluten-free vanilla extract\n\n\n1 cup white sugar\n\n\n½ cup white rice flour\n\n\n½ cup sweet rice flour\n\n\n½ cup cornstarch\n\n\n2 tablespoons tapioca starch\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking soda\n\n\n½ teaspoon xanthan gum\n\n\n½ teaspoon salt'}, {'recipe_ingredients': "1 tablespoon confectioners' sugar\n\n\n1 teaspoon lemon juice"}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease a 9x5-inch loaf pan."},{"recipe_directions":"Combine zucchini, oil, eggs, and vanilla in a blender; pulse until mixture resembles a milkshake."},{"recipe_directions":"Whisk sugar, rice flours, cornstarch, tapioca starch, baking powder, cinnamon, baking soda, xanthan gum, and salt together in a large bowl. Stir in zucchini mixture until batter is well blended; pour into the prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 1 hour. Cool in the pan for a few minutes before removing to cool completely on a wire rack."},{"recipe_directions":"While the bread is cooling, make the glaze: Mix confectioners' sugar and lemon juice together in a small bowl to form a thin glaze. Drizzle over the cooled loaf."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Zucchini Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"284\nCalories\n\n\n12g \nFat\n\n\n42g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656649-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wzrbtVVu6gIfbAoZm8X2YNhXZ5c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/6578787-2480b64396734c27977205c32f75f978.jpg"
@@ -1243,59 +1520,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273070/keto-pepperoni-pizza-with-fathead-crust/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Keto Pepperoni Pizza with Fathead Crust</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n1 12-inch pizza"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons yeast\n\n\n2 tablespoons warm water\n\n\n3 cups shredded part-skim mozzarella cheese, divided\n\n\n1  large egg, lightly beaten\n\n\n1 cup almond flour\n\n\n1 teaspoon xanthan gum\n\n\n⅛ teaspoon salt\n\n\n¼ cup no-sugar-added pizza sauce (such as Rao's)\n\n\n2 ounces sliced pepperoni\n\n\n1 pinch red pepper flakes to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 teaspoons yeast\n\n\n2 tablespoons warm water\n\n\n3 cups shredded part-skim mozzarella cheese, divided\n\n\n1  large egg, lightly beaten\n\n\n1 cup almond flour\n\n\n1 teaspoon xanthan gum\n\n\n⅛ teaspoon salt\n\n\n¼ cup no-sugar-added pizza sauce (such as Rao's)\n\n\n2 ounces sliced pepperoni\n\n\n1 pinch red pepper flakes to taste (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line a baking sheet with parchment paper. Mix yeast into warm water in a small cup until dissolved; set aside."},{"recipe_directions":"Place 1 1/2 cups mozzarella cheese into a medium microwave-safe bowl. Microwave for 90 seconds, stirring every 30 seconds, until completely melted. Stir in yeast mixture and egg until combined; it will not fully incorporate at this point."},{"recipe_directions":"Stir in almond flour, xanthan gum, and salt. If difficult to mix, reheat in the microwave for 20 to 30 seconds to soften the cheese. Stir again until well incorporated. Knead dough by hand for 2 minutes."},{"recipe_directions":"Place dough onto the prepared baking sheet and press with your fingers into a thin crust about 11 or 12 inches in diameter."},{"recipe_directions":"Bake in the preheated oven until lightly browned, about 10 minutes. Spread pizza sauce over crust. Top with remaining 1 1/2 cups mozzarella cheese, then scatter pepperoni over top."},{"recipe_directions":"Return to the oven and bake until cheese is melted, about 5 minutes. Sprinkle with red pepper flakes. Cut into six slices."},{"recipe_directions":"Use your favorite no-sugar-added pizza sauce or marinara sauce."},{"recipe_directions":"I highly recommend shredding your own mozzarella as the bagged variety doesn't melt well."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pizza Dough and Crust Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n15g \nFat\n\n\n8g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656655-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ac66PPSLNv0GHQilPQn2BurZwuw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/9096806-cd2a86ce20d0451ebe6a18cbf1bbd076.jpg"
@@ -1306,59 +1579,55 @@
 Gluten-Free Pita Flatbread</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283085/gluten-free-pita-flatbread/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Gluten-Free Pita Flatbread</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 pitas"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup lukewarm water, divided, or as needed\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon honey\n\n\n1 cup gluten-free bread flour\n\n\n¾ cup gluten-free whole grain flour\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup lukewarm water, divided, or as needed\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon honey\n\n\n1 cup gluten-free bread flour\n\n\n¾ cup gluten-free whole grain flour\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 100 degrees F (38 degrees C)."},{"recipe_directions":"Combine 1/2 cup lukewarm water with yeast and honey. Mix and set aside to proof, 5 to 10 minutes."},{"recipe_directions":"Combine both gluten-free flours in a stand mixer fitted with the dough hook. Turn mixer to low and while mixing, add oil and salt. Slowly add the yeast mixture; allow to mix. Add remaining lukewarm water, little by little, until all the flour comes together. Depending on your flour mix, you may not need all of the water or you may need more to create a soft dough. Once a ball forms, knead on low speed for exactly 1 minute; the dough will be sticky but manageable."},{"recipe_directions":"Use your hands to form dough into a ball. Put it back into the mixing bowl and cover with a warm, damp towel. Turn off the oven and put the bowl in the warm oven. Let rise until almost doubled in size, about 45 minutes."},{"recipe_directions":"Use a kitchen scale and divide the dough into 6 equal balls. Cover again with the damp towel and return to the turned-off oven; let rise for 15 minutes."},{"recipe_directions":"Roll 1 dough ball between 2 sheets of parchment paper into a 6-inch round pita; avoid using flour or pitas will dry out or burn. Peel the parchment paper away from the dough (not the dough away from the parchment or it will stretch)."},{"recipe_directions":"Heat a cast iron griddle or comal pan over medium-high heat (7 out of 9 on an electric stovetop). Place the pita on the hot pan and cook until one side has browned slightly and begins to puff up, 2 to 3 minutes. Flip pita and cook until puffy on the other side, another 2 to 3 minutes. Use tongs to press down on the dough; it will continue to puff up."},{"recipe_directions":"Roll remaining pitas and cook the same way. Pitas are ready to serve when cool to the touch, but still warm."},{"recipe_directions":"I use Schär Mix Bread flour and Schär Mix It Rustico flour."},{"recipe_directions":"To make ahead, wrap unused dough in plastic wrap and refrigerate up to 24 hours. Bring to room temperature before cooking."},{"recipe_directions":"Leftover cooked pitas reheat nicely in the microwave (one minute at 360 watts) or in the oven for a few minutes at 300 degrees F (150 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Gluten Free"},{"recipe_tags":"Bread"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"156\nCalories\n\n\n3g \nFat\n\n\n31g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656661-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j2jOZUkkNpfs5b_7hrKTcrg9BjE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1940279-6bb14e137ea34586ae519b8ab5f8b745.jpg"
@@ -1371,59 +1640,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240083/gluten-free-pumpkin-bread/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Gluten-Free Pumpkin Bread</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n10 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup pumpkin puree\n\n\n¾ cup white sugar\n\n\n2  eggs, beaten\n\n\n¼ cup canola oil\n\n\n¼ cup applesauce\n\n\n1 ¾ cups gluten-free multi-purpose flour (such as Mixoflour)\n\n\n1 teaspoon baking soda\n\n\n¾ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon ground ginger\n\n\n¼ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup pumpkin puree\n\n\n¾ cup white sugar\n\n\n2  eggs, beaten\n\n\n¼ cup canola oil\n\n\n¼ cup applesauce\n\n\n1 ¾ cups gluten-free multi-purpose flour (such as Mixoflour)\n\n\n1 teaspoon baking soda\n\n\n¾ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon ground ginger\n\n\n¼ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease and flour a 9x5-inch loaf pan."},{"recipe_directions":"Mix pumpkin puree, sugar, eggs, oil, and applesauce together in a large bowl. Whisk flour, baking soda, salt, cinnamon, nutmeg, cloves, and ginger together in a separate bowl; add to pumpkin mixture and stir until just blended into a batter. Gently fold raisins through the batter; pour into prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, 60 to 70 minutes. Cool in the pans for 10 minutes before removing to cool completely on a wire rack."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Pumpkin Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"146\nCalories\n\n\n7g \nFat\n\n\n21g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656666-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BKCM9ATGPMkxKMX4Ox7Grancc9g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/246002-almond-flour-bread-ddmfs-4x3-1085810891-dae43e02141447a2afe580ff0f621951.jpg"
@@ -1437,59 +1702,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246002/almond-flour-bread/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Almond Flour Bread</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n1 (8 x 4-inch) loaf"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups almond flour\n\n\n⅓ cup flaxseed meal\n\n\n4 large eggs\n\n\n¼ cup unsweetened almond milk\n\n\n2 tablespoons olive oil\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups almond flour\n\n\n⅓ cup flaxseed meal\n\n\n4 large eggs\n\n\n¼ cup unsweetened almond milk\n\n\n2 tablespoons olive oil\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease an 8x4-inch loaf pan, or line with parchment paper."},{"recipe_directions":"Mix almond flour, flaxseed meal, eggs, almond milk, olive oil, baking powder, and salt together in a bowl until a soft dough forms."},{"recipe_directions":"Transfer to the prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until golden brown on top, about 40 minutes. Cool in the loaf pan for 10 minutes before transferring to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Gluten Free"},{"recipe_tags":"Bread"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n20g \nFat\n\n\n7g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656670-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oS-f0Qru0UWhrq9KaducfPMcY0k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1492x0:1494x2):format(webp)/4497465-020e2c48b7eb4702840da89420ad091b.jpg"
@@ -1502,59 +1763,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257436/gluten-free-pizza-crust-or-flatbread/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Gluten-Free Pizza Crust or Flatbread</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n1 \n\n\nYield:\n1 large crust"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup very warm water\n\n\n½ teaspoon white sugar\n\n\n2 teaspoons yeast\n\n\n2 cups gluten-free flour blend\n\n\n½ cup rice flour\n\n\n1 tablespoon Italian seasoning\n\n\n1 teaspoon xanthan gum\n\n\n1 teaspoon unflavored gelatin powder\n\n\n½ teaspoon salt\n\n\n3 tablespoons apple cider vinegar\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup very warm water\n\n\n½ teaspoon white sugar\n\n\n2 teaspoons yeast\n\n\n2 cups gluten-free flour blend\n\n\n½ cup rice flour\n\n\n1 tablespoon Italian seasoning\n\n\n1 teaspoon xanthan gum\n\n\n1 teaspoon unflavored gelatin powder\n\n\n½ teaspoon salt\n\n\n3 tablespoons apple cider vinegar\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk water and sugar together in a bowl. Whisk in yeast. Let stand until yeast softens and begins to form a creamy foam, about 10 minutes."},{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine gluten-free flour, rice flour, Italian seasoning, xanthan gum, gelatin, and salt in the bowl of a stand mixer fitted with the paddle attachment. Whisk vinegar and olive oil into yeast mixture; pour over flour mixture. Mix on high speed until a wet, sticky dough forms, about 6 minutes."},{"recipe_directions":"Transfer dough to the prepared baking sheet. Lay another sheet of parchment paper on top; smooth out dough to fill the baking sheet. Let dough rest, about 10 minutes."},{"recipe_directions":"Bake in the preheated oven until dough puffs up, 5 to 10 minutes. Peel parchment paper off the top. Continue baking until dough is golden brown and edges are cooked through, about 20 minutes."},{"recipe_directions":"Use any kind of herbs you like."},{"recipe_directions":"After baking, add whatever toppings and cheese you like and return to the oven until the toppings are heated through and cheese melts."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pizza Dough and Crust Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1632\nCalories\n\n\n52g \nFat\n\n\n277g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656678-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9sRMVZugT1XoihuTd_n_4tRNUJY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1905x0:1907x2):format(webp)/7968699-b5a29db434f84ca1996463551786ec0a.jpg"
@@ -1567,59 +1824,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279730/mbeju-paraguayan-cheese-flatbread/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Mbeju (Paraguayan Cheese Flatbread)</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 flatbreads"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups cassava flour\n\n\n½ teaspoon kosher salt\n\n\n1 pinch cayenne pepper\n\n\n4 tablespoons cold butter, cut into cubes\n\n\n4 ounces freshly grated mild Cheddar cheese\n\n\n⅓ cup cold milk, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups cassava flour\n\n\n½ teaspoon kosher salt\n\n\n1 pinch cayenne pepper\n\n\n4 tablespoons cold butter, cut into cubes\n\n\n4 ounces freshly grated mild Cheddar cheese\n\n\n⅓ cup cold milk, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cassava flour, salt, cayenne, butter, and Cheddar cheese in a bowl by rubbing the mixture between your fingertips until the mixture resembles large, coarse crumbs. Drizzle in about 1/3 cup of milk and continue mixing and rubbing with your hands until the mixture resembles very small pebbles and is moist enough to hold together in large clumps when squeezed tightly together, adding more milk if needed."},{"recipe_directions":"Place a small (6-inch) dry, nonstick pan over medium-high heat until hot, about 2 minutes. Transfer in a heaping 1/2-cup of the mixture, or enough to cover the bottom of the pan. The mixture should be 1/4 inch to 1/2 inch deep for this to work. Press the top of the mixture down slightly to settle and use a spatula to go around the edges of the mixture, pressing any loose crumbs back into the flatbread."},{"recipe_directions":"Cover and cook until the bottom is golden browned, a crust forms under the flatbread, and a spatula can be slid underneath, about 3 minutes per side. Turn over with a combination of tossing the pan up slightly, while flipping with the spatula. You can also place a plate over the pan, and invert the flatbread to turn, and then slide back into the pan. Cook the other side until golden brown, 3 to 4 minutes more. Remove from heat allow to rest for 2 minutes before serving warm."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n14g \nFat\n\n\n40g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656685-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7y1feptH8VXVC_5_KVdCm09epYE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5342983-keto-tortillas-A-B-4x3-1-5431b50cd8c343e7baf13a809a63f996.jpg"
@@ -1633,59 +1886,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263603/keto-tortillas/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Keto Tortillas</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n8 tortillas"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup blanched almond flour\n\n\n3 tablespoons coconut flour\n\n\n2 teaspoons xanthan gum\n\n\n1 teaspoon baking powder\n\n\n1 pinch salt\n\n\n2 teaspoons apple cider vinegar\n\n\n1 large egg\n\n\n3 tablespoons water\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup blanched almond flour\n\n\n3 tablespoons coconut flour\n\n\n2 teaspoons xanthan gum\n\n\n1 teaspoon baking powder\n\n\n1 pinch salt\n\n\n2 teaspoons apple cider vinegar\n\n\n1 large egg\n\n\n3 tablespoons water\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond flour, coconut flour, xanthan gum, baking powder, and salt in the bowl of a food processor; pulse until well combined. Pour apple cider vinegar into mixture and blend until smooth. Beat egg and water in a small bowl; add egg mixture to the food processor, 1 tablespoon at a time, and blend until a sticky dough ball is formed."},{"recipe_directions":"Place dough on a surface sprinkled with almond flour and knead until soft, about 2 minutes. Wrap dough in plastic wrap and let it stand for 10 minutes."},{"recipe_directions":"Divide dough into 8 equal balls; roll out each ball into a 5-inch disc between 2 sheets of parchment paper."},{"recipe_directions":"Heat an iron skillet over medium-high heat and grease with cooking spray. Place dough disc in the hot skillet for just 5 seconds; flip it immediately with a spatula, and cook until lightly golden, about 40 seconds. Flip and cook for another 40 seconds."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n9g \nFat\n\n\n7g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656693-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4YYGZDWbVOlKIsojhza_5o8rpd8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2305575-ced50ec9f2294d4a87e27084a024ebb0.jpg"
@@ -1698,59 +1947,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237509/gluten-free-beer-bread/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Gluten-Free Beer Bread</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n10 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¾ cups gluten-free flour blend\n\n\n¼ cup buckwheat flour\n\n\n1 tablespoon white sugar\n\n\n2 ½ teaspoons xanthan gum\n\n\n1 teaspoon salt\n\n\n3 eggs, at room temperature\n\n\n3 tablespoons vegetable oil\n\n\n2 tablespoons agave nectar\n\n\n1 teaspoon apple cider vinegar\n\n\n1 (12 fluid ounce) can or bottle gluten-free beer, at room temperature\n\n\n2 ¼ teaspoons rapid-rise yeast\n\n\n2 tablespoons milk, or to taste (Optional)\n\n\n1 tablespoon poppy seeds, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¾ cups gluten-free flour blend\n\n\n¼ cup buckwheat flour\n\n\n1 tablespoon white sugar\n\n\n2 ½ teaspoons xanthan gum\n\n\n1 teaspoon salt\n\n\n3 eggs, at room temperature\n\n\n3 tablespoons vegetable oil\n\n\n2 tablespoons agave nectar\n\n\n1 teaspoon apple cider vinegar\n\n\n1 (12 fluid ounce) can or bottle gluten-free beer, at room temperature\n\n\n2 ¼ teaspoons rapid-rise yeast\n\n\n2 tablespoons milk, or to taste (Optional)\n\n\n1 tablespoon poppy seeds, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a 9x5-inch loaf pan."},{"recipe_directions":"Mix flour blend, buckwheat flour, sugar, xanthan gum, and salt together in a bowl."},{"recipe_directions":"Beat eggs, vegetable oil, agave, and apple cider vinegar in another large bowl with an electric mixer. Mix in dry ingredients and beat until smooth. Stir in beer and yeast, then mix on high speed for 4 minutes. Pour into the prepared loaf pan."},{"recipe_directions":"Brush the top of the loaf with milk and sprinkle poppy seeds evenly over the surface. Cover oiled waxed paper and let rise until doubled in volume, 30 to 60 minutes."},{"recipe_directions":"Bake in the preheated oven until set in the middle and the internal temperature of the loaf reaches 210 degrees F (99 degrees C), 35 to 45 minutes."},{"recipe_directions":"You can use hard cider instead of beer. If you don't want to use beer or hard cider, you can use ginger ale, but then omit the agave."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"149\nCalories\n\n\n6g \nFat\n\n\n18g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656699-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oKaro5M-fGL5nRdya_sK46j-izI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(540x0:542x2):format(webp)/8596558-667e12e8a93b46739c3af1ca1b5ffd49.jpg"
@@ -1763,59 +2008,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281841/almond-flour-lemon-muffins/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Almond Flour Lemon Muffins</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n10 \n\n\nYield:\n10 muffins"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups almond flour\n\n\n3 teaspoons baking powder\n\n\n¼ teaspoon baking soda\n\n\n¾ cup white sugar\n\n\n2 large eggs\n\n\n½ cup plain fat-free Greek yogurt\n\n\n¼ cup unsalted butter, melted\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n1 tablespoon lemon zest"},{"recipe_ingredients":"½ cup almond flour\n\n\n3 tablespoons brown sugar\n\n\n2 tablespoons unsalted butter, melted"},{"recipe_ingredients":"1 cup powdered sugar\n\n\n1 tablespoon half-and-half\n\n\n1 tablespoon fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups almond flour\n\n\n3 teaspoons baking powder\n\n\n¼ teaspoon baking soda\n\n\n¾ cup white sugar\n\n\n2 large eggs\n\n\n½ cup plain fat-free Greek yogurt\n\n\n¼ cup unsalted butter, melted\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n1 tablespoon lemon zest'}, {'recipe_ingredients': '½ cup almond flour\n\n\n3 tablespoons brown sugar\n\n\n2 tablespoons unsalted butter, melted'}, {'recipe_ingredients': '1 cup powdered sugar\n\n\n1 tablespoon half-and-half\n\n\n1 tablespoon fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line 10 muffin cups with paper liners."},{"recipe_directions":"Sift almond flour, baking powder, and baking soda together into a bowl and set aside."},{"recipe_directions":"Mix sugar, eggs, Greek yogurt, butter, lemon juice, and lemon zest in a bowl with an electric mixer until smooth and creamy. Add flour mixture into the wet ingredients and mix until well combined, but be careful not to overmix. Distribute the batter evenly between the prepared muffin cups, filling the cups all the way to the top."},{"recipe_directions":"Make the topping by mixing almond flour, brown sugar, and butter together until crumbly. Set aside."},{"recipe_directions":"Bake muffins in the preheated oven for 15 minutes, then remove from the oven and sprinkle crumble mixture over the tops. Continue baking until the edges are golden and a toothpick inserted into the center of one of the muffins comes out clean, 3 to 5 minutes. Cool muffins in the pan on a wire rack for 5 minutes."},{"recipe_directions":"While the muffins are cooling, mix powdered sugar, half-and-half, and lemon juice together in a small bowl for the glaze. Remove the muffins from the pan and drizzle the glaze over the top."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"462\nCalories\n\n\n30g \nFat\n\n\n42g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656705-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fwzsx5bA7cd6CXURt_LrDY81wTQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8070877-7f983baf63144a19aabb2528d2f67022.jpg"
@@ -1828,59 +2069,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272700/macadamia-fat-bread/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Macadamia Fat Bread</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n18"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup coconut butter\n\n\n1 cup chopped macadamia nuts\n\n\n5  eggs, room temperature\n\n\n1 tablespoon stevia sugar substitute (such as Truvia®)\n\n\n2 teaspoons baking soda\n\n\n¾ teaspoon salt\n\n\n2 ½ tablespoons lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup coconut butter\n\n\n1 cup chopped macadamia nuts\n\n\n5  eggs, room temperature\n\n\n1 tablespoon stevia sugar substitute (such as Truvia®)\n\n\n2 teaspoons baking soda\n\n\n¾ teaspoon salt\n\n\n2 ½ tablespoons lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a loaf pan with parchment paper."},{"recipe_directions":"Place coconut butter and macadamia nuts in a food processor and process on high to achieve a part-butter, part-chunky nut meal. Reduce speed to medium-low and add 1 egg. Run processor to combine, about 10 seconds. Add remaining eggs, one at a time, blending until mixture is creamy."},{"recipe_directions":"Turn off the food processor and add stevia, baking soda, and salt; process to combine, 10 to 15 seconds. Scrape down the sides of the bowl and process until mixture is evenly blended. Pour in lemon juice and reduce speed to low; blend well. Scrape the sides of the bowl again and mix once more to thoroughly combine."},{"recipe_directions":"Pour mixture into the prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 35 minutes. Let cool before transferring to a wire rack."},{"recipe_directions":"You can substitute apple cider vinegar for lemon juice."},{"recipe_directions":"If you dampen the parchment paper, it will be easier to line the loaf pan."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"143\nCalories\n\n\n14g \nFat\n\n\n4g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656711-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f8y3v_d381dtL4kuGq4J6mLzhuM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(819x1004:821x1006):format(webp)/5837736-air-fryer-pao-de-queijo-Buckwheat-Queen-4x3-1-68c96c63f98044a680f039bd95db2e1f.jpg"
@@ -1894,59 +2131,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268518/air-fryer-pao-de-queijo/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Air Fryer Pão de Queijo</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n20"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup sweet manioc starch (polvilho doce) (such as Yoki®)\n\n\n¾ cup sour manioc starch (polvilho azedo) (such as Yoki®)\n\n\n¼ cup whole milk\n\n\n¼ cup water\n\n\n¼ cup olive oil\n\n\n1 teaspoon salt\n\n\n2  eggs, lightly beaten\n\n\n¾ cup shredded Cheddar cheese\n\n\n½ cup finely grated Parmigiano-Reggiano cheese"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup sweet manioc starch (polvilho doce) (such as Yoki®)\n\n\n¾ cup sour manioc starch (polvilho azedo) (such as Yoki®)\n\n\n¼ cup whole milk\n\n\n¼ cup water\n\n\n¼ cup olive oil\n\n\n1 teaspoon salt\n\n\n2  eggs, lightly beaten\n\n\n¾ cup shredded Cheddar cheese\n\n\n½ cup finely grated Parmigiano-Reggiano cheese'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 325 degrees F (165 degrees C)."},{"recipe_directions":"Mix sweet manioc and sour manioc starches together in a bowl until fully combined."},{"recipe_directions":"Combine milk, water, olive oil, and salt in a saucepan and bring to a boil. Reduce heat and add starches. Stir until liquid is absorbed; mixture will be very dry. Remove from heat and allow mixture to cool just until safe to handle."},{"recipe_directions":"Add eggs to starch mixture in the saucepan; mix until smooth and dough pulls away from the sides. Add Cheddar cheese and Parmigiano Reggiano cheese; mix well."},{"recipe_directions":"Using gloved or lightly oiled hands, pinch off a golfball-sized piece of dough, roll into a ball, and place on a plate. Repeat with remaining dough. Line the air fryer with a piece of parchment paper. Place balls into the basket in batches, approximately 1 inch apart."},{"recipe_directions":"Bake in the air fryer until browned outside, 8 to 10 minutes. Repeat with remaining balls."},{"recipe_directions":"You can freeze uncooked dough balls. Cook unthawed dough for 10 to 12 minutes at 325 degrees F (165 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"97\nCalories\n\n\n6g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656720-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IeX944gY_C0_h2BXysY02EO4CVs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-181-87ce30a0dd094461b848e45363f8385a.jpg"
@@ -1960,59 +2193,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283627/chocolate-almond-breakfast-donuts/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Chocolate Almond Breakfast Donuts</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 donuts"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"nonstick vegetable oil cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons vegetable oil\n\n\n3 tablespoons maple syrup\n\n\n1 ¼ cups finely ground almond flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon kosher salt\n\n\n2 tablespoons Dutch-process cocoa powder"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'nonstick vegetable oil cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons vegetable oil\n\n\n3 tablespoons maple syrup\n\n\n1 ¼ cups finely ground almond flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon kosher salt\n\n\n2 tablespoons Dutch-process cocoa powder'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These gluten-free, grain-free, low-carb, high-protein donutsmight not be quite as sweet and decadent as regular donuts. But to me at least, they're significantly more enjoyable than any of those supposedly healthy breakfast bars."},{"recipe_directions":"And no, I didn't forget these were frosted with chocolate. Contrary to popular belief, that isn't as \"bad\" for you as you think. If you choose a chocolate witha high percentage of cacao (70% or higher), it really doesn't contain an alarming amount of sugar — but it does feature a surprisingly high amount of fiber and disease-fighting antioxidants. Plus, studies show that chocolate makes people feel good after they eat it, so there's that."},{"recipe_directions":"Speaking of healthy, you can customize these and up the nutritional value by adding things like dried fruit, seeds, and/or nuts to the batter or topping. No, peanut M&amp;M's don't count. Save those for the time we make regular, non-breakfast donuts. Regardless of how you adapt yours, I really do hope you give these a try soon. Enjoy!"},{"recipe_directions":"For more Chef John, be sure to subscribe to Food Wishes on YouTube! Click the \"Join\" button there to get Chef John's bonus video footage and behind-the-scenes pictures, live chats, and other Food Wishes member exclusives."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Generously spray or brush a nonstick donut pan with cooking spray; set aside until needed."},{"recipe_directions":"Place eggs, vegetable oil, and maple syrup into a mixing bowl and whisk thoroughly until the mixture is emulsified, light, and a little bit foamy, 3 to 4 minutes. Add almond flour, baking powder, salt, and cocoa powder; mix everything together thoroughly with a spatula until all the almond flour is incorporated and you've achieved a very thick batter."},{"recipe_directions":"Transfer batter into a pastry bag, or a plastic zip-top bag with one of the corners cut off. Pipe the batter evenly into the prepared donut pan."},{"recipe_directions":"Dip a finger in water and smooth the tops of the batter to even out. Tap the pan on a work surface a few times to settle the batter even more."},{"recipe_directions":"Bake in the center of the preheated oven until a wooden skewer inserted into a donut comes out clean, 9 to 10 minutes. Let cool in the pan for 10 minutes before inverting onto a wire cooling rack. Cool completely before serving."},{"recipe_directions":"The donut pan can also be greased with soft butter."},{"recipe_directions":"You can use any fat of your choice instead of vegetable oil--butter, coconut oil, or extra-virgin olive oil, to name a few. You can use 1/4 teaspoon fine salt instead of kosher salt. Make sure to use high-quality Dutch-process cocoa powder. I used Bob's Red Mill(R) almond flour."},{"recipe_directions":"You can add a teaspoon of vanilla extract to the batter if you like."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pastries"},{"recipe_tags":"Doughnuts"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"246\nCalories\n\n\n19g \nFat\n\n\n14g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656724-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GDMN6nFmBUo--ZXgaakNxSlzezs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3597773-1fb39fe1172f49f68d1a585bd809e0d0.jpg"
@@ -2025,59 +2254,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237292/gluten-free-donuts/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Gluten-Free Donuts</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 quart olive oil for frying, or as needed\n\n\n5 tablespoons coconut milk\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1  egg\n\n\n2 tablespoons almond flour\n\n\n2 tablespoons coconut flour\n\n\n2 teaspoons honey\n\n\n¼ teaspoon guar gum\n\n\n½ cup confectioners' sugar (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 quart olive oil for frying, or as needed\n\n\n5 tablespoons coconut milk\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1  egg\n\n\n2 tablespoons almond flour\n\n\n2 tablespoons coconut flour\n\n\n2 teaspoons honey\n\n\n¼ teaspoon guar gum\n\n\n½ cup confectioners' sugar (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep fryer or in a large saucepan to 300 degrees F (150 degrees C)."},{"recipe_directions":"Beat coconut milk, all-purpose flour, egg, almond flour, coconut flour, honey, and guar gum together in a bowl using a hand blender until batter resembles thick pancake batter."},{"recipe_directions":"Drop batter by rounded spoonfuls, working in batches, into the hot oil; fry until donuts are dark brown, 3 to 5 minutes. Remove donuts with a slotted spoon. Pour confectioners' sugar into a shallow bowl. Roll donuts in confectioners' sugar until coated."},{"recipe_directions":"Any nut flour would work in place of the almond flour."},{"recipe_directions":"Substitute agave nectar for honey for vegan donuts."},{"recipe_directions":"Always make one test donut to check for time and texture before making the remainder."},{"recipe_directions":"Cinnamon-sugar can be used in place of the confectioners' sugar if desired."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n30g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656729-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/at647BnhqI0iVUKLc-fie9VRv40=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3355673-bac5a9583dc746e7809f409bbc17028d.jpg"
@@ -2090,59 +2315,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238012/banana-blueberry-almond-flour-muffins-gluten-free/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Banana Blueberry Almond Flour Muffins (Gluten-Free)</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond meal\n\n\n½ teaspoon ground flax seed (Optional)\n\n\n½ teaspoon chia seeds (Optional)\n\n\n¼ teaspoon baking soda\n\n\n2  eggs\n\n\n1 tablespoon honey\n\n\n½ teaspoon apple cider vinegar\n\n\n½  ripe banana\n\n\n¾ cup fresh blueberries"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond meal\n\n\n½ teaspoon ground flax seed (Optional)\n\n\n½ teaspoon chia seeds (Optional)\n\n\n¼ teaspoon baking soda\n\n\n2  eggs\n\n\n1 tablespoon honey\n\n\n½ teaspoon apple cider vinegar\n\n\n½  ripe banana\n\n\n¾ cup fresh blueberries'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line 4 muffin cups with paper liners."},{"recipe_directions":"Mix almond meal, flax seed, chia seeds, and baking soda together in a small bowl. Whisk eggs, honey, and apple cider vinegar together in a separate bowl. Stir almond meal mixture into egg mixture until batter is just mixed. Mash banana into batter and fold in blueberries. Scoop batter into the prepared muffin cups."},{"recipe_directions":"Bake in the preheated oven until slightly browned, about 15 minutes. Cool muffins in a pan for 30 minutes."},{"recipe_directions":"For a vegan substitute, use 2 tablespoons of applesauce or 3/4 of a banana in place of the eggs."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Blueberry Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n8g \nFat\n\n\n20g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656734-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E6FnJhocFyNJUxlHgK9rXNbdtlg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/fileB7w3F1-72f174ad681b4b9fa8b6b9094371056b.jpg"
@@ -2154,59 +2375,55 @@
 7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/gluten-free-slow-cooker-dinners/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>7 Gluten-Free Slow-Cooker Dinners</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Oh, slow cooker, you make life so much easier for us! But for those of us who need slow cooker deliciousness to also be gluten-free, that ease can be a little harder to come by. Or is it? Many beef-and-potato stew recipes are naturally gluten-free. But many recipes that seem gluten-free may contain some foods you'd never think would contain gluten (hello, soy sauce!). These seven top-rated, wildly delicious, gluten-free slow-cooker dinners appeal to gluten fiends and gluten-frees alike. Enjoy!"},{"recipe_directions":"1. Slow Cooker Spanish Beef Stew"},{"recipe_directions":"Jen79 gave this recipe by Moefunk04 five stars, and added a couple of tweaks of her own: \"I cooked this for four hours on low and then one and a half on high. My husband and I really enjoyed it.\""},{"recipe_directions":"Get the Recipe: Slow Cooker Spanish Beef Stew"},{"recipe_directions":"2. Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"Recipe creator CHARLEY357 says, \"This recipe can be used with chicken, beef, pork and even venison. It freezes well, and can be made into burritos or tacos.\" So, just get yourself some corn tortillas and some Mexican food fixins, and you're in business!"},{"recipe_directions":"Get the Recipe: Charley's Slow Cooker Mexican-Style Meat"},{"recipe_directions":"3. Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"\"This was a hit!\" says Betsy of this recipe by Elena. \"Super easy and very tasty. I threw in a couple of frozen chicken breasts rather than cooking them first and saved myself a step. (I shredded them towards the end.)\""},{"recipe_directions":"Get the Recipe: Slow Cooker Chicken Tortilla Soup"},{"recipe_directions":"4. Slow Cooker Pepper Steak"},{"recipe_directions":"\"This was easy and delicious!\" Says TRACI8878 of this recipe by MJWAGNER68. \"I added a couple of cloves of chopped garlic and a few dashes of Worcestershire sauce.\" Many reviewers also recommend adding the peppers at the end if you like them crisper. Make sure you substitute Tamari, gluten-free soy sauce, in place of the regular soy sauce this recipe calls for."},{"recipe_directions":"Get the Recipe: Slow Cooker Pepper Steak"},{"recipe_directions":"5. Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"\"A wonderful 'fix and forget' recipe that is easy and pleases just about everyone,\" says recipe creator Carla Joy. She suggests serving it \"with rice or pasta, or even alone.\" Gluten-free tip: There are so many delicious gluten-free pasta options these days, so don't count out that pasta option just yet. You can always serve this over rice, though."},{"recipe_directions":"Get the Recipe: Slow Cooker Lemon Garlic Chicken II"},{"recipe_directions":"6. Pork Chalupas"},{"recipe_directions":"\"Delicious!\" says Athena of this recipe by Stefani Ferguson. \"The only thing I did differently was toss the raw beef in adobo saffron spices before browning it. Otherwise I followed the recipe to a tee. Definitely a new family favorite! Even my 2 year old loves it!\" IMPORTANT NOTE: To go fully gluten-free, be sure to use corn tortillas rather than the flour ones the recipe calls for."},{"recipe_directions":"Get the Recipe: Pork Chalupas"},{"recipe_directions":"7. Slow Cooker Mongolian Beef"},{"recipe_directions":"Use Tamari gluten-free soy sauce instead of regular soy sauce, and you'll have a meal that \"tastes like you got it at a Chinese restaurant,\" says recipe creator, leith123. Serve this over rice or rice noodles."},{"recipe_directions":"Get the Recipe: Slow Cooker Mongolian Beef"},{"recipe_directions":"More Gluten-Free Goodness:"},{"recipe_directions":"Breakfast of Champions: Gluten-Free Pancakes"},{"recipe_directions":"Tasty Flourless Peanut Butter Cookies"},{"recipe_directions":"The Epic Allrecipes Library of 1,300 Gluten-Free Recipes"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Dinner Fix"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656739-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T42oPMehntQZ6_wmXJTkMQqmX4Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2516071-3a0d842bcf834b078ba70f40324dc4a9.jpg"
@@ -2219,59 +2436,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221430/brazilian-cheese-rolls-pao-de-queijo/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Brazilian Cheese Rolls (Pão de Queijo)</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n14 \n\n\nYield:\n28 rolls"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups tapioca starch\n\n\n1 teaspoon salt (Optional)\n\n\n½ cup vegetable oil\n\n\n⅓ cup water\n\n\n⅓ cup milk\n\n\n6 ounces shredded Parmesan cheese\n\n\n2 large eggs"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups tapioca starch\n\n\n1 teaspoon salt (Optional)\n\n\n½ cup vegetable oil\n\n\n⅓ cup water\n\n\n⅓ cup milk\n\n\n6 ounces shredded Parmesan cheese\n\n\n2 large eggs'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Lightly grease a baking sheet"},{"recipe_directions":"Place tapioca starch and salt in a large bowl."},{"recipe_directions":"Bring oil, water, and milk to a boil in a saucepan over medium heat until a white foam appears. Pour milk mixture over tapioca starch mixture; stir until well mixed and allow dough to rest for 15 minutes."},{"recipe_directions":"Mix Parmesan cheese and eggs into dough until well combined. Shape dough into 1 1/2-inch balls and place on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until rolls are browned, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n12g \nFat\n\n\n17g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656745-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8onljPuo7muaIxOCbJLQHubtKoU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/49746-89b6a3de068e408bb152784e139facf3.jpg"
@@ -2284,59 +2497,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7185/gluten-free-white-bread-for-bread-machines/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Gluten-Free White Bread for Bread Machines</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n12 \n\n\nYield:\n1 (1 1/2-pound) loaf"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large eggs\n\n\n1 tablespoon cider vinegar\n\n\n¼ cup olive oil\n\n\n¼ cup honey\n\n\n1 ½ cups buttermilk, at room temperature\n\n\n1 teaspoon salt\n\n\n1 tablespoon xanthan gum\n\n\n⅓ cup cornstarch\n\n\n½ cup potato starch\n\n\n½ cup soy flour\n\n\n2 cups white rice flour\n\n\n1 tablespoon active dry yeast"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large eggs\n\n\n1 tablespoon cider vinegar\n\n\n¼ cup olive oil\n\n\n¼ cup honey\n\n\n1 ½ cups buttermilk, at room temperature\n\n\n1 teaspoon salt\n\n\n1 tablespoon xanthan gum\n\n\n⅓ cup cornstarch\n\n\n½ cup potato starch\n\n\n½ cup soy flour\n\n\n2 cups white rice flour\n\n\n1 tablespoon active dry yeast'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ingredients into a bread machine in the order listed, or follow the order recommended by the manufacturer if different."},{"recipe_directions":"Select the sweet dough cycle. Five minutes into the cycle, check the consistency of dough. Add additional rice flour or liquid if necessary."},{"recipe_directions":"Let bread cool for 10 to 15 minutes before removing from the pan."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Bread Machine"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"242\nCalories\n\n\n7g \nFat\n\n\n40g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656750-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BzzQp1RLtJyRcpPo43jNb9f6GnA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3384978-31c226a6eded4f21b118dd6f88582800.jpg"
@@ -2349,59 +2558,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246678/gluten-free-crescent-rolls/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Gluten-Free Crescent Rolls</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 rolls"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup whole milk\n\n\n¼ cup butter, softened\n\n\n2 tablespoons honey\n\n\n2 teaspoons honey\n\n\n⅛ teaspoon salt\n\n\n¼ cup warm water (110 degrees F (43 degrees C))\n\n\n½ (.25 ounce) package active dry yeast\n\n\n1 large egg, beaten, divided\n\n\n2 cups gluten-free all-purpose flour\n\n\n1 tablespoon butter, softened, divided\n\n\n1 tablespoon potato starch, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup whole milk\n\n\n¼ cup butter, softened\n\n\n2 tablespoons honey\n\n\n2 teaspoons honey\n\n\n⅛ teaspoon salt\n\n\n¼ cup warm water (110 degrees F (43 degrees C))\n\n\n½ (.25 ounce) package active dry yeast\n\n\n1 large egg, beaten, divided\n\n\n2 cups gluten-free all-purpose flour\n\n\n1 tablespoon butter, softened, divided\n\n\n1 tablespoon potato starch, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat milk in a microwave-safe bowl until warm, about 30 seconds. Mix in 1/4 cup butter, 2 tablespoons plus 2 teaspoons honey, and salt until combined. Cool until lukewarm, 3 to 5 minutes."},{"recipe_directions":"Combine warm water and yeast in a small bowl. Let stand until dissolved and creamy, about 5 minutes."},{"recipe_directions":"Combine milk mixture and yeast mixture in the bowl of a stand mixer fitted with a paddle attachment. Add 1/2 of the beaten egg. Beat in flour, 1/2 cup at a time, until dough pulls together. Switch to the dough hook attachment and knead lightly until dough is wet and sticky but forms into a ball, about 5 minutes."},{"recipe_directions":"Grease a large bowl with 1 teaspoon softened butter. Use greased or wet hands to transfer dough into the bowl, turn to coat with butter. Cover with a damp cloth and let rise in a warm place until doubled in volume, about 1 hour."},{"recipe_directions":"Dust a work surface with potato starch. Deflate dough and turn it out onto the work surface. Divide dough into 4 equal pieces and form into rounds. Place a piece of parchment paper over one of the rounds and roll into a rectangle about 1/8-inch thick with a rolling pin; cut into 4 wedges. Brush each wedge with a little softened butter. Repeat with remaining dough rounds."},{"recipe_directions":"Roll each wedge up from the base towards the point. Brush a little bit of remaining beaten egg on the seam to seal. Bend each roll into a crescent shape."},{"recipe_directions":"Line baking sheets with parchment paper. Arrange crescents, seal-side down, onto the prepared baking sheets. Brush tops with remaining beaten egg."},{"recipe_directions":"Transfer crescents on the baking sheets to the cold oven. Preheat the oven to 365 degrees F (185 degrees C)."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 25 minutes."},{"recipe_directions":"If the dough does not hold its shape in step 3, add a tablespoon of flour at a time until the right consistency is reached. Do not add too much flour. The outcome needs to be sticky to the touch, not dry."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Rolls and Buns"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"108\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656758-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F0W_Y3msb5Hoprk5hDDoOmY1TeE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5457696-grain-free-butter-bread-Chef-John-1x1-1-fc622661421241ba9af20f077ea2044f.jpg"
@@ -2415,59 +2620,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265434/grain-free-butter-bread/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Grain-Free Butter Bread</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n8 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large eggs\n\n\n1 ½ cups finely ground almond flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon fine salt\n\n\n¼ cup melted butter\n\n\n⅛ teaspoon cream of tartar"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large eggs\n\n\n1 ½ cups finely ground almond flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon fine salt\n\n\n¼ cup melted butter\n\n\n⅛ teaspoon cream of tartar'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Separate eggs. Crack each egg into your hand and let the whites run into a bowl. Place yolks in a second bowl."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Butter a loaf pan and line the bottom with parchment paper."},{"recipe_directions":"Place almond flour in a food processor. Add baking powder, salt, and egg yolks. Pour in melted butter. Pulse, scraping down the sides once or twice, until mixture comes together."},{"recipe_directions":"Sprinkle cream of tartar into egg whites. Whisk until soft peaks form. Transfer about 1/3 of the mixture into the food processor. Pulse on and off, scraping mixture down with a spatula as needed, until well blended. Scrape mixture into the bowl with egg whites. Fold together until well combined but still airy. Pour batter into the prepared loaf pan."},{"recipe_directions":"Bake in the preheated oven until golden brown and a toothpick inserted into the center comes out clean, about 30 minutes."},{"recipe_directions":"Run a thin knife along the edge bread and let rest for 10 minutes. Turn bread out onto a wire rack and cool to room temperature before slicing."},{"recipe_directions":"Will it toast? Yes! Even better, top the bread with sliced strawberries. To run with this strawberry shortcake idea, you could add a spoon of sugar to the batter, and you'd just be some whipped cream away from a pretty decent, low-carb treat."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n21g \nFat\n\n\n6g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656763-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_kmmrn2xQfQEtbKkeCa2d0szV3c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6061537-keto-crackers-France-C-4x3-1-1cb1850a3c8e4007ad506f1217374b41.jpg"
@@ -2481,59 +2682,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265673/keto-crackers/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Keto Crackers</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n40 \n\n\nYield:\n40 crackers"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup shredded mozzarella cheese\n\n\n⅓ cup finely ground almond flour\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n1 large egg yolk"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup shredded mozzarella cheese\n\n\n⅓ cup finely ground almond flour\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n1 large egg yolk'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine mozzarella cheese, almond flour, garlic powder, and salt in a microwave-safe bowl. Heat in the microwave for 30 seconds."},{"recipe_directions":"Use your hands to knead mozzarella dough until fully mixed. Add egg yolk and continue kneading until completely blended into dough."},{"recipe_directions":"Lay a piece of parchment paper on a flat surface and place dough on top. Place a second piece of parchment paper on top of dough. Press down on dough with your hands until ready for a rolling pin."},{"recipe_directions":"Roll into a very thin rectangle with even sides. Gently poke holes in dough using a fork to prevent it from bubbling while baking. Cut dough into 1-inch squares with a knife."},{"recipe_directions":"Lay squares on the prepared baking sheet, leaving a little space between them"},{"recipe_directions":"Bake in the preheated oven for 5 to 6 minutes. Remove the baking sheet from the oven and turn crackers over. Continue baking until lightly browned and crisp, about 2 more minutes. Watch them closely to prevent burning."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"11\nCalories\n\n\n1g \nFat\n\n\n0g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656768-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NeziPqJ4Yjxpf2tSTdzOznZXiCA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6272750-chef-johns-brazilian-cheese-bread-pao-de-queijo-Chef-John-1x1-1-0879e0ba229b4e40a81637062fd627cd.jpg"
@@ -2547,59 +2744,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270110/chef-johns-brazilian-cheese-bread-pao-de-queijo/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Chef John's Pão de Queijo (Brazilian Cheese Bread)</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n24 \n\n\nYield:\n24 pão de queijo"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¼ cups tapioca flour, or more as needed\n\n\n⅔ cup milk\n\n\n½ cup mild olive oil\n\n\n1 teaspoon kosher salt\n\n\n2 large eggs, beaten\n\n\n2 ounces freshly grated mozzarella cheese\n\n\n2 ounces finely grated Parmigiano-Reggiano cheese\n\n\n1 pinch cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ cups tapioca flour, or more as needed\n\n\n⅔ cup milk\n\n\n½ cup mild olive oil\n\n\n1 teaspoon kosher salt\n\n\n2 large eggs, beaten\n\n\n2 ounces freshly grated mozzarella cheese\n\n\n2 ounces finely grated Parmigiano-Reggiano cheese\n\n\n1 pinch cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a baking sheet with a silicone mat."},{"recipe_directions":"Place tapioca flour in a mixing bowl; set aside."},{"recipe_directions":"Combine milk, olive oil, and salt in a pan. Bring to a simmer over medium-high heat. Immediately remove from heat and pour into tapioca in the bowl. Mix until a shaggy dough starts to form. Let rest for 5 minutes."},{"recipe_directions":"Add eggs, mozzarella and Parmesan cheeses, and cayenne to the bowl; stir with a fork until thoroughly combined. Use a medium ice cream scoop to portion dough onto the prepared baking sheet. Poke down any jagged bits using a wet finger if desired."},{"recipe_directions":"Bake in the preheated oven until rolls are puffed and golden, about 20 minutes. Let cool for 5 minutes and serve warm."},{"recipe_directions":"Substitute vegetable oil for olive oil, if desired."},{"recipe_directions":"Instead of using an ice cream scoop, you can add more flour to the dough and roll it into balls or add more liquid, pour it into muffin cups, and bake these like popovers. The taste will be the same, but the texture will change."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"109\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656773-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2Pk4Df8YPoGU0LQtj1BBupSE9hk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8296078-29cab6b0b2414d6f9082a9f726611bdf.jpg"
@@ -2612,59 +2805,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242467/almond-flour-pizza-crust/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Almond Flour Pizza Crust</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n14 mins\n\n\nCook Time:\n34 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n1 pizza crust"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ¼ cups King Arthur Almond Flour\n\n\n2 tablespoons King Arthur Coconut Flour\n\n\n1 teaspoon dried Italian herbs (Optional)\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n3 large eggs\n\n\n2 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ cups King Arthur Almond Flour\n\n\n2 tablespoons King Arthur Coconut Flour\n\n\n1 teaspoon dried Italian herbs (Optional)\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n3 large eggs\n\n\n2 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F. Get out a large rimmed baking sheet."},{"recipe_directions":"Whisk together almond flour, coconut flour, Italian herbs, baking powder, salt, and pepper in a large mixing bowl."},{"recipe_directions":"Whisk eggs and oil together in a separate bowl until frothy. Pour egg mixture into the dry ingredients and mix together to form a dough. Shape dough into a ball."},{"recipe_directions":"Transfer dough to a piece of parchment paper and top with a second sheet of parchment paper. Roll dough between the two sheets to a thickness of 1/4 inch."},{"recipe_directions":"Remove and discard the top sheet of parchment paper. Slide the crust and the bottom sheet of parchment paper onto a large rimmed baking sheet."},{"recipe_directions":"Bake in the preheated oven until the edges have started to crisp and the crust has started to brown all over, 15 to 20 minutes."},{"recipe_directions":"Remove partially baked crust from the oven and top with desired toppings. See below for further cooking and serving instructions."},{"recipe_directions":"Top the partially baked crust with your desired toppings, and return it to the oven. Bake for another 12 to 15 minutes, until any cheese you used has melted and the edges of the crust are golden brown."},{"recipe_directions":"If you like browned cheese, broil the pizza for 1 to 2 minutes after baking."},{"recipe_directions":"Remove pizza from the oven, and let it cool for 2 to 3 minutes. Slice it with a pizza cutter and top with a sprinkle of grated cheese before serving, if desired."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n23g \nFat\n\n\n8g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656779-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MUftYAw1QBAxYovYHP0Sd_tku0U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116798-homemade-gluten-free-cinnamon-rolls-Burnellfam08-4x3-1-3578a348f25c4a8c88fdf48f8a96e321.jpg"
@@ -2678,59 +2867,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278995/homemade-gluten-free-cinnamon-rolls/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Homemade Gluten-Free Cinnamon Rolls</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n10 \n\n\nYield:\n10 rolls"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup white sugar\n\n\n2 ¼ teaspoons quick-rise yeast\n\n\n1 ¾ cups gluten-free all-purpose flour\n\n\n2 ½ teaspoons baking powder\n\n\n1 ½ teaspoons xanthan gum\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n⅔ cup milk\n\n\n1 tablespoon unsalted butter\n\n\n¼ cup olive oil\n\n\n1 large egg\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons gluten-free all-purpose flour, or as needed"},{"recipe_ingredients":"½ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n⅓ cup unsalted butter, melted"},{"recipe_ingredients":"2 tablespoons unsalted butter, softened\n\n\n2 tablespoons cream cheese, softened\n\n\n¾ cup powdered sugar\n\n\n½ tablespoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n1 dash salt"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup white sugar\n\n\n2 ¼ teaspoons quick-rise yeast\n\n\n1 ¾ cups gluten-free all-purpose flour\n\n\n2 ½ teaspoons baking powder\n\n\n1 ½ teaspoons xanthan gum\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n⅔ cup milk\n\n\n1 tablespoon unsalted butter\n\n\n¼ cup olive oil\n\n\n1 large egg\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons gluten-free all-purpose flour, or as needed'}, {'recipe_ingredients': '½ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n⅓ cup unsalted butter, melted'}, {'recipe_ingredients': '2 tablespoons unsalted butter, softened\n\n\n2 tablespoons cream cheese, softened\n\n\n¾ cup powdered sugar\n\n\n½ tablespoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n1 dash salt'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make dough: Combine sugar and yeast in a small bowl. Mix flour, baking powder, xanthan gum, baking soda, and salt together in a separate bowl."},{"recipe_directions":"Place milk and butter in a microwave-safe bowl. Cook on high, stirring every 15 seconds, until 110 to 115 degrees F (43 to 46 degrees C), about 45 seconds. Whisk into yeast mixture and set aside to proof, about 5 minutes."},{"recipe_directions":"Combine proofed yeast with olive oil, egg, and vanilla extract in a large bowl; mix for a few seconds, then slowly add flour mixture. Mix with an electric mixer on medium-high speed until dough thickens and loses some of its stickiness, about 1 1/2 minutes."},{"recipe_directions":"Cover a work surface with plastic wrap and a light layer of flour. Place dough in the center, dust with a little more flour, and cover with another sheet of plastic wrap. Roll out to a 10x13-inch rectangle; remove the top layer of plastic wrap."},{"recipe_directions":"Make filling: Combine brown sugar and cinnamon in a small bowl. Spread melted butter over dough; sprinkle brown sugar mixture evenly over top."},{"recipe_directions":"Starting at a long edge, roll dough up like a jelly roll, using the plastic wrap to help lift and roll as you go. Lightly sprinkle dough with more flour and cut into 10 pieces with a sharp knife. Place rolls in a greased baking dish, cover with plastic wrap, and place in a warm spot to rise for 15 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake rolls in the preheated oven until tops are golden brown, 22 to 27 minutes."},{"recipe_directions":"Make frosting: Beat butter and cream cheese in a mixing bowl until smooth. Add powdered sugar; mix until smooth. Mix in lemon juice, vanilla extract, and salt."},{"recipe_directions":"Remove cinnamon rolls from the oven and immediately drizzle frosting over top."},{"recipe_directions":"If your gluten-free all-purpose flour already has xanthan gum, do not add extra to the dough."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n18g \nFat\n\n\n47g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656785-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8tID_z960lFEZfp3Lu1YpVF-57E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1106101-gluten-free-banana-bread-Andrea-Brabant-Grulke-1x1-1-267d876155454ee9ad6683dffc0db889.jpg"
@@ -2744,59 +2929,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217065/gluten-free-banana-bread/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Gluten Free Banana Bread</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ cup butter\n\n\n½ cup turbinado sugar\n\n\n2  eggs, lightly beaten\n\n\n3 tablespoons maple syrup\n\n\n6  ripe bananas, mashed"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ cup butter\n\n\n½ cup turbinado sugar\n\n\n2  eggs, lightly beaten\n\n\n3 tablespoons maple syrup\n\n\n6  ripe bananas, mashed'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C). Lightly grease a 9x5 inch loaf pan."},{"recipe_directions":"In a large bowl, combine flour, baking powder and salt. In a separate bowl, cream together butter and sugar. Stir in eggs, maple syrup and mashed bananas until well blended. Add the banana mixture to the flour mixture; mix until batter is just moist. Pour batter into prepared loaf pan."},{"recipe_directions":"Bake in preheated oven for 20 to 30 minutes, until a toothpick inserted into center of the loaf comes out clean. If using muffin or cupcake tins, bake for 15 minutes or until a toothpick inserted into the center of a muffin comes out clean."},{"recipe_directions":"Cook's Note"},{"recipe_directions":"To make this vegan, replace the eggs with 2 additional bananas and use vegan margarine instead of butter."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Fruit Bread Recipes"},{"recipe_tags":"Banana Bread"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n7g \nFat\n\n\n19g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656790-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/e_aFMElBxPSVbCudhsC_968HwZQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/6439252-cassava-flour-tortillas-Buckwheat-Queen-4x3-1-a556e1f939624cab9fcbc283ccd9f391.jpg"
@@ -2810,59 +2991,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/271093/cassava-flour-tortillas/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Cassava Flour Tortillas</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup lukewarm water\n\n\n¼ teaspoon salt\n\n\n1 cup cassava flour\n\n\n2 ½ tablespoons vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup lukewarm water\n\n\n¼ teaspoon salt\n\n\n1 cup cassava flour\n\n\n2 ½ tablespoons vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare a tortilla press with 2 pieces of parchment paper. Set aside."},{"recipe_directions":"Pour warm water into a bowl and stir in salt until it dissolves."},{"recipe_directions":"Combine flour, salt water, and oil in a bowl and mix with your hands until a smooth dough forms. Move dough to a smooth surface and lightly knead until dough feels compact and does not crumble. Separate into 4 equal pieces and roll them into balls."},{"recipe_directions":"Heat a griddle over medium-high heat. Press one dough ball between 2 pieces of parchment paper in the tortilla press. Press down. Open press and carefully peel off the top piece of parchment paper. Flip tortilla onto your hand and carefully peel off the 2nd piece of paper. Return paper back onto tortilla press. Immediately cook the pressed tortilla on the hot griddle. Cook until bubbles form, flip over, and cook on the other side until browned. Do not flip the tortilla before bubbles form or the tortilla will break. Repeat with remaining dough balls."},{"recipe_directions":"Serve immediately or cover with a cloth and reheat in the microwave for 30 seconds at 600W."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n9g \nFat\n\n\n35g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656797-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5hqxm-zgDDQ5imJLA3En6HhTwA8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1249x0:1251x2):format(webp)/5262200-6a38a75b190f4478b6467c582d1f41f5.jpg"
@@ -2875,59 +3052,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263455/chef-johns-corn-tortillas/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Chef John's Corn Tortillas</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 tortillas"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup masa harina, or as needed\n\n\n½ teaspoon kosher salt\n\n\n¾ cup hot tap water, about 130 degrees F (55 degrees C)"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup masa harina, or as needed\n\n\n½ teaspoon kosher salt\n\n\n¾ cup hot tap water, about 130 degrees F (55 degrees C)'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add masa harina to a large bowl. Sprinkle in salt and add hot tap water. Stir mixture with your fingers until dough starts to pull together."},{"recipe_directions":"Knead for a few minutes to smooth it out until texture resembles modeling clay or putty. Add more water if dough is too dry and more flour if too wet."},{"recipe_directions":"Place a damp towel and over the dough to keep it from drying out. Let rest for 20 to 30 minutes."},{"recipe_directions":"Cut a zip-top bag into 2 rounds the same size as your tortilla press. Place 1 round on the bottom of the press."},{"recipe_directions":"Place a clean kitchen towel over a pie dish for holding the cooked tortillas later."},{"recipe_directions":"Pull off a little piece of the dough, enough to roll into a 1 1/2-inch or 1-ounce ball. Remove the top round of plastic, place dough ball in the center of the bottom round, and press down lightly. Cover dough with the top piece of plastic."},{"recipe_directions":"Fold the tortilla press over, apply pressure to the lever arm until tortilla flattens to your desired thinness."},{"recipe_directions":"Peel off the top piece of plastic. Line up the index finger of your dominant hand with the edge of the tortilla; flip it over into your other hand. Carefully peel off the plastic."},{"recipe_directions":"Gently slide tortilla, palm-up, into a hot, dry pan over medium- to medium-high heat. Cook first side for 30 to 45 seconds. Turn over and cook second side for 1 minute. Flip and press once or twice with a spatula until tortilla puffs up slightly. Cook for 30 seconds more. Flip one last time and cook for 5 to 10 seconds."},{"recipe_directions":"Quickly transfer tortilla to the pie dish and fold the towel over to wrap it up. Repeat pressing and cooking the rest of the tortilla dough, stacking and wrapping as you go."},{"recipe_directions":"Leave the stack of tortillas wrapped until soft and supple, at least 15 minutes."},{"recipe_directions":"You can also make the plastic rounds out of plastic wrap."},{"recipe_directions":"If you don't have a tortilla press, use a flat-bottomed pot or pan. You can also place the dough between 2 cookbooks stacked on a chair and sit on top of the books."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n0g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656802-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/stUpVUA8ecny-iwTgx0QkJejpgY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6527481-easy-4-ingredient-low-carb-keto-wraps-Joba-4x3-1-a19f5f4c73da41b6a978f1b42e86a82a.jpg"
@@ -2941,59 +3114,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263605/easy-4-ingredient-low-carb-keto-wraps/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Easy 4-Ingredient Low-Carb Keto Wraps</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n12 \n\n\nYield:\n12 wraps"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  eggs\n\n\n2 ¾ cups almond milk\n\n\n½ cup coconut flour\n\n\n¾ teaspoon sea salt\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n2 ¾ cups almond milk\n\n\n½ cup coconut flour\n\n\n¾ teaspoon sea salt\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk eggs and almond milk together in a bowl until well combined."},{"recipe_directions":"Combine coconut flour and salt in a separate bowl. Stir in egg mixture; whisk until a smooth and soft batter is formed. Let stand for 5 minutes."},{"recipe_directions":"Heat a 6-inch skillet over medium-high heat. Grease skillet with cooking spray. Pour in 1/4 cup of the batter and immediately rotate the skillet to spread batter out in a thin layer. Cook covered until the top of the wrap is no longer wet and the bottom has turned light brown, 1 to 2 minutes. Run a spatula around the edge of the skillet to loosen wrap; flip wrap and cook until the other side has turned light brown, about 1 minute more."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Tortilla Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"69\nCalories\n\n\n3g \nFat\n\n\n6g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656807-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rjodqi3o5s0FddZXJKrBdT_uTfw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7937208-cheesy-keto-biscuits-joie32-4x3-1-78e2802b5cf74c269608a3d36c05d732.jpg"
@@ -3007,59 +3176,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264211/cheesy-keto-biscuits/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Cheesy Keto Biscuits</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n9 \n\n\nYield:\n9 large biscuits"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups almond flour\n\n\n1 tablespoon baking powder\n\n\n2 ½ cups shredded Cheddar cheese\n\n\n4  eggs\n\n\n¼ cup half-and-half"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups almond flour\n\n\n1 tablespoon baking powder\n\n\n2 ½ cups shredded Cheddar cheese\n\n\n4  eggs\n\n\n¼ cup half-and-half'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine almond flour and baking powder in a large bowl. Mix in Cheddar cheese by hand. Create a small well in the middle of the bowl; add eggs and half-and-half to the center. Use a large fork, spoon, or your hands to blend in the flour mixture until a sticky batter forms."},{"recipe_directions":"Drop 9 portions of batter onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Biscuits"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n27g \nFat\n\n\n7g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656810-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jOliCHbjNx1_yAwHPOVoZSakfAc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/52534-3cf860d4e5984be28c579387208ad044.jpg"
@@ -3072,59 +3237,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21097/sweet-corn-cakes/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Sweet Corn Cakes</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n1 - 8x8 inch pan"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, softened\n\n\n⅓ cup masa harina\n\n\n¼ cup water\n\n\n1 ½ cups frozen corn kernels, thawed\n\n\n¼ cup cornmeal\n\n\n⅓ cup white sugar\n\n\n2 tablespoons heavy cream\n\n\n¼ teaspoon salt\n\n\n½ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, softened\n\n\n⅓ cup masa harina\n\n\n¼ cup water\n\n\n1 ½ cups frozen corn kernels, thawed\n\n\n¼ cup cornmeal\n\n\n⅓ cup white sugar\n\n\n2 tablespoons heavy cream\n\n\n¼ teaspoon salt\n\n\n½ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"In a medium bowl, beat butter with an electric mixer until creamy. Beat in the masa harina and water until well combined."},{"recipe_directions":"Put the corn in a blender or food processor and coarsely chop on low speed. Stir the corn and the cornmeal into the butter mixture. In another bowl, mix together the sugar, cream, salt and baking powder. Combine the two mixtures until well blended. Pour the batter into an ungreased 8x8 pan."},{"recipe_directions":"Cover the pan with foil and place into a 9x13 inch pan filled 3/4 inch high with hot water. Bake in preheated oven for 50 to 60 minutes, until a toothpick inserted into center of the cake comes out clean. Remove small pan from water and let sit for 10 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Cornbread Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n13g \nFat\n\n\n22g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656815-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ShgbSgB2iehmqHPwrHV5RdH3OW0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3294874-9d77d35bd3f24800a1b9ba84f11ffadb.jpg"
@@ -3137,59 +3298,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246248/cloud-bread/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Cloud Bread</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n17 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n32 mins\n\n\nServings:\n8 \n\n\nYield:\n8 rounds"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons cream cheese\n\n\n2  eggs, separated\n\n\n¼ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons cream cheese\n\n\n2  eggs, separated\n\n\n¼ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 300 degrees F (150 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Place cream cheese in a microwave-safe bowl and warm in the microwave at 10-second intervals until softened, about 30 seconds. Cool to room temperature, about 5 minutes. Mix in egg yolks until smooth."},{"recipe_directions":"Place egg whites and baking powder in a glass, metal, or ceramic bowl; beat together until stiff peaks form."},{"recipe_directions":"Fold yolk mixture gently into egg whites until batter is just combined and light yellow in color."},{"recipe_directions":"Scoop batter into 4-inch rounds on baking sheet, flattening peaks with the back of the spoon."},{"recipe_directions":"Bake in the preheated oven until golden brown, 17 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"31\nCalories\n\n\n3g \nFat\n\n\n0g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656819-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/in1Io0vZTOrms_E4XeSHg-8ZcsM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5443045-injera-ethiopian-teff-bread-Buckwheat-Queen-4x3-1-a9db76aa02ef46e1ac58c43b27e6ad21.jpg"
@@ -3203,59 +3360,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264651/injera-ethiopian-teff-bread/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Injera (Ethiopian Teff Bread)</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n1 mins\n\n\nAdditional Time:\n1 day\n\n\nTotal Time:\n1 day 6 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup white teff flour\n\n\n¼ cup brown teff flour\n\n\n3 tablespoons white teff flour, divided, or as needed\n\n\n1 cup water\n\n\n3 tablespoons water, divided, or as needed\n\n\n1 teaspoon vegetable oil (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup white teff flour\n\n\n¼ cup brown teff flour\n\n\n3 tablespoons white teff flour, divided, or as needed\n\n\n1 cup water\n\n\n3 tablespoons water, divided, or as needed\n\n\n1 teaspoon vegetable oil (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1/2 cup white teff flour and brown teff flour together in a bowl. Add 1 cup water and whisk well. Pour mixture into a glass container large enough to hold 3 times the original volume. Cover with cheesecloth or other breathable fabric to keep out dust; do not seal with plastic wrap as air circulation is vital. Leave covered container in a draft-free environment; the mixture needs air to be circulated in order to ferment. Stir batter 2 times over 24 hours."},{"recipe_directions":"Check for bubbles and possibly an increase in volume after 24 hours; there may also be a slightly tangy and sour smell. When you notice these things, add 1 tablespoon white teff flour and 1 tablespoon water to the batter and whisk well. Check in a few hours to see if bubbles have again formed, mixture has increased in volume, and the pungent smell is still evident; if so, the batter is ready and you can skip to the cooking process (step 5)."},{"recipe_directions":"Leave batter to rest another 12 hours if the mixture has not begun to form or smell sour after the first 24 hours; stir once during this time. Check to see if bubbles have formed, mixture has increased in volume, and a pungent smell is evident; if so, proceed with step 4."},{"recipe_directions":"Mix together 2 tablespoons white teff flour and 2 tablespoons water in a bowl, making sure there are no lumps. Add mixture to the batter, whisking well. Wait a few hours; batter should be bubbly with a noticeable increase in volume and a pungent but fragrant smell, indicating it is ready to be cooked."},{"recipe_directions":"Heat an 8-inch crepe pan or nonstick skillet over medium heat. Add oil. Pour a scant 1/2 cup batter slowly and steadily into the hot pan in a circular motion from outside to inside. Cover the pan completely in a spiral without swirling. Cover, reduce heat to medium-low, and cook, allowing steam to cook the top of the bread, 1 to 3 minutes. Remove from pan with spatula and transfer to a plate; cover to keep warm. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n4g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656823-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/plx1KR-Xsj67hCPPlG0lof6FmtA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(520x0:522x2):format(webp)/8396890-4be71b5b9e2a4edc83991d604d2c404a.jpg"
@@ -3268,59 +3421,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281145/almond-flour-chocolate-chip-muffins/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Almond Flour Chocolate Chip Muffins</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10 \n\n\nYield:\n10 muffins"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups blanched almond flour\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon baking soda\n\n\n2  eggs\n\n\n⅔ cup white sugar\n\n\n½ cup unsalted butter, melted\n\n\n½ cup nonfat Greek yogurt\n\n\n1 teaspoon vanilla extract\n\n\n1 cup semisweet chocolate chips, divided\n\n\n1 tablespoon blanched almond flour"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups blanched almond flour\n\n\n3 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon baking soda\n\n\n2  eggs\n\n\n⅔ cup white sugar\n\n\n½ cup unsalted butter, melted\n\n\n½ cup nonfat Greek yogurt\n\n\n1 teaspoon vanilla extract\n\n\n1 cup semisweet chocolate chips, divided\n\n\n1 tablespoon blanched almond flour'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Sift 3 cups almond flour together with baking powder, salt, and baking soda into a bowl and set aside."},{"recipe_directions":"Mix eggs, sugar, melted butter, Greek yogurt, and vanilla extract together in a bowl with an electric mixer until smooth and creamy. Add flour mixture into the wet ingredients and mix until well combined, but be careful not to overmix."},{"recipe_directions":"Toss 3/4 cup of the chocolate chips with 1 tablespoon almond flour in a bowl so that the chips are lightly coated. Fold the coated chocolate chips into the batter. Distribute the batter evenly between 10 paper-lined muffin cups, filling the cups all the way to the top. Sprinkle remaining chocolate chips over the tops of the muffins."},{"recipe_directions":"Bake in a preheated oven for 5 minutes, then reduce heat to 350 degrees F (175 degrees C). Continue baking until the tops are golden and a toothpick inserted into the center of one of the muffins comes out clean, 12 to 15 minutes."},{"recipe_directions":"Cool muffins in the pan on a wire rack for at least 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Chocolate Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"458\nCalories\n\n\n34g \nFat\n\n\n33g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656828-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NyZDHoAViIbVRoLzU_D6JwT2n7Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5790510-gluten-free-cornbread-Angel-4x3-1-06d7e5d9aa744ebd97a5ceefbab86b7b.jpg"
@@ -3334,59 +3483,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255254/gluten-free-cornbread/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Gluten-Free Cornbread</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n1 8-inch baking pan"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups white cornmeal\n\n\n½ cup white sugar\n\n\n¼ cup gluten-free all-purpose flour\n\n\n1 tablespoon gluten-free baking powder\n\n\n1 cup milk\n\n\n¼ cup butter, melted\n\n\n1  egg\n\n\n1 (14.75 ounce) can cream-style corn"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups white cornmeal\n\n\n½ cup white sugar\n\n\n¼ cup gluten-free all-purpose flour\n\n\n1 tablespoon gluten-free baking powder\n\n\n1 cup milk\n\n\n¼ cup butter, melted\n\n\n1  egg\n\n\n1 (14.75 ounce) can cream-style corn'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Grease an 8-inch square pan."},{"recipe_directions":"Mix cornmeal, sugar, flour, and baking powder together in a bowl."},{"recipe_directions":"Whisk milk, butter, and egg together in another bowl. Stir into cornmeal mixture just until combined and some lumps remain. Fold in corn. Pour batter into the pan and smooth out the top."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, 20 to 25 minutes."},{"recipe_directions":"Substitute 1 can whole-kernel corn for the creamed corn if desired."},{"recipe_directions":"If using unsalted butter, add 3/4 teaspoon salt."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Cornbread Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"248\nCalories\n\n\n8g \nFat\n\n\n42g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656831-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RFJxC0v0jBHG9NZgIvNUwDF96GI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6552999-8d8b6163275347fe997e6413bf3a4e61.jpg"
@@ -3399,59 +3544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270774/air-fryer-keto-garlic-cheese-bread/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Air Fryer Keto Garlic Cheese 'Bread'</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1 large egg\n\n\n½ teaspoon garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1 large egg\n\n\n½ teaspoon garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line the air fryer basket with a piece of parchment paper."},{"recipe_directions":"Combine mozzarella cheese, Parmesan cheese, egg, and garlic powder in a bowl; mix until well combined. Press into a round circle on the parchment in the air fryer basket."},{"recipe_directions":"Heat the air fryer to 350 degrees F (175 degrees C). Fry bread for 10 minutes. Remove. Serve garlic cheese bread warm, but not hot."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n14g \nFat\n\n\n3g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656834-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/adn_FuXvdjs0o4x_xiyMjKDl4H0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5068184-easy-cloud-bread-Colleen-Brose-1x1-1-10d0edcd12224cc7a38b51b7221e7882.jpg"
@@ -3465,59 +3606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246350/easy-cloud-bread/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Easy Cloud Bread</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  large eggs, separated\n\n\n¼ teaspoon cream of tartar\n\n\n2 ounces cream cheese, very soft\n\n\n1 tablespoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  large eggs, separated\n\n\n¼ teaspoon cream of tartar\n\n\n2 ounces cream cheese, very soft\n\n\n1 tablespoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Beat egg whites and cream of tartar together in a bowl until stiff peaks form."},{"recipe_directions":"Mix egg yolks, cream cheese, and sugar together in a separate bowl using a wooden spoon and then mixing with a hand-held egg beater until mixture is very smooth and has no visible cream cheese. Gently fold egg whites into cream cheese mixture, taking care not to deflate the egg whites."},{"recipe_directions":"Carefully scoop mixture onto the prepared baking sheet, forming 5 to 6 \"buns\"."},{"recipe_directions":"Bake in the preheated oven until cloud bread is lightly browned, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"93\nCalories\n\n\n7g \nFat\n\n\n3g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656837-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a379M2hoxoJ1c72iz2cMKfx-E9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2536680-6bdd388e35e0423894e59d839f8e5582.jpg"
@@ -3530,59 +3667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242399/italian-chickpea-bread/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Italian Chickpea Bread</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chickpea flour\n\n\n1 cup water\n\n\n  cooking spray\n\n\n2 tablespoons oil\n\n\n1 ½ teaspoons Italian seasoning\n\n\n1 ½ teaspoons chopped dried rosemary\n\n\n  ground black pepper to taste\n\n\n1 pinch salt to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chickpea flour\n\n\n1 cup water\n\n\n  cooking spray\n\n\n2 tablespoons oil\n\n\n1 ½ teaspoons Italian seasoning\n\n\n1 ½ teaspoons chopped dried rosemary\n\n\n  ground black pepper to taste\n\n\n1 pinch salt to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk chickpea flour and water together in a bowl until smooth; let sit at room temperature, 2 to 6 hours."},{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C). Spray the inside of an 8-inch metal pie pan."},{"recipe_directions":"Skim foam from the top of chickpea-water mixture. Add oil, Italian seasoning, and rosemary and stir until combined. Pour mixture into the prepared pan; sprinkle black pepper and salt over the top."},{"recipe_directions":"Bake in the preheated oven until edges begin to brown, about 15 minutes. Remove bread from pan and cut into wedges."},{"recipe_directions":"Use a metal pie pan; a glass or ceramic one may break with the extremely high temperature!"},{"recipe_directions":"Chickpea flour is also known as garbanzo bean flour."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656840-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SNFB-_5bCKqButkvP3Pq5yqiD18=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6970997-keto-fathead-bread-France-C-4x3-1-fca8e93c8fb34ebcb8f6ad7984946ea3.jpg"
@@ -3596,59 +3729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273073/keto-fathead-bread/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Keto Fathead Bread</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup shredded mozzarella cheese\n\n\n2 ounces cream cheese\n\n\n1 large egg\n\n\n⅓ cup almond flour\n\n\n2 teaspoons baking powder\n\n\n¼ teaspoon garlic powder\n\n\n½ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup shredded mozzarella cheese\n\n\n2 ounces cream cheese\n\n\n1 large egg\n\n\n⅓ cup almond flour\n\n\n2 teaspoons baking powder\n\n\n¼ teaspoon garlic powder\n\n\n½ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place mozzarella cheese and cream cheese in a microwave-safe bowl. Microwave on high, 20 seconds at a time, until melted."},{"recipe_directions":"Whisk egg in a bowl until beaten. Mix in almond flour, baking powder, and garlic powder until well combined. Work mozzarella mixture into the dough until sticky. Stir in Cheddar cheese."},{"recipe_directions":"Transfer the dough to a sheet of plastic wrap and fold plastic wrap over the dough. Gently work the dough into a ball. Refrigerate for 30 minutes."},{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Grease a baking sheet or line with parchment paper."},{"recipe_directions":"Remove the dough from the refrigerator and unwrap. Cut dough into 4 equal pieces and roll each piece into a ball. Cut each ball in half to form a top and bottom bun. Place dough, cut-side down, on the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden and set up, 10 to 12 minutes."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n19g \nFat\n\n\n4g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656844-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H3TuKnfcgR_ddKYDAV1YvrgDf24=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3972682-192a5d6093bf497b9c661ca9daca8e5a.jpg"
@@ -3661,59 +3790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261641/whole30-banana-bread-drop-muffins/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Whole30 Banana Bread Drop Muffins</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons coconut oil\n\n\n3 ½ cups almond flour\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n2 large ripe bananas\n\n\n¼ cup coconut oil, melted and cooled\n\n\n2  large eggs"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons coconut oil\n\n\n3 ½ cups almond flour\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n2 large ripe bananas\n\n\n¼ cup coconut oil, melted and cooled\n\n\n2  large eggs'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a rimmed baking sheet with 2 teaspoons coconut oil."},{"recipe_directions":"Whisk almond flour, salt, and baking soda together in a bowl."},{"recipe_directions":"Break bananas into pieces and place into a microwave-safe bowl. Microwave until soft, about 30 seconds."},{"recipe_directions":"Mash bananas until creamy. Add 1/4 cup melted coconut oil and eggs; mix until well combined. Stir in dry ingredients until incorporated. Drop batter onto the prepared baking sheet, making 12 biscuit-shaped mounds."},{"recipe_directions":"Bake in the preheated oven until peaks are lightly browned, about 17 minutes. Remove from the oven and allow to cool slightly before serving."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Banana Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"290\nCalories\n\n\n24g \nFat\n\n\n13g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656847-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1AVzMBYdRCLD1uwU_TefN9ej1AA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(899x0:901x2):format(webp)/9234834-almond-flour-banana-bread-Shannon-Artym-1x1-1-a153bfc43ebe479cbab5a91c9af3f1a3.jpg"
@@ -3727,59 +3852,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239025/almond-flour-banana-bread/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Almond Flour Banana Bread</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n3 large eggs, beaten\n\n\n1 tablespoon apple cider vinegar\n\n\n3 medium ripe bananas, mashed\n\n\n¼ cup coconut oil, melted\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n3 cups almond flour\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n3 large eggs, beaten\n\n\n1 tablespoon apple cider vinegar\n\n\n3 medium ripe bananas, mashed\n\n\n¼ cup coconut oil, melted\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n3 cups almond flour\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C). Spray a 9x5-inch loaf pan with cooking spray."},{"recipe_directions":"Whisk eggs and vinegar together in a bowl. Stir in bananas, coconut oil, honey, and vanilla until blended."},{"recipe_directions":"Sift almond flour, cinnamon, baking powder, nutmeg, and salt together in a large bowl; stir into wet ingredients until well blended. Pour into the prepared bread pan."},{"recipe_directions":"Bake in the preheated oven until a knife inserted into the center comes out clean, about 1 hour; cover with foil if it begins to brown too much. Cool in the pan for 10 minutes, then remove loaf and cool completely on a wire rack."},{"recipe_directions":"Almond flour can be purchased in most health food stores, but I save money by grinding almonds in a food processor. Just watch and make sure you don't process it for too long, or it will turn into almond butter!"}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"332\nCalories\n\n\n17g \nFat\n\n\n32g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656850-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uEV32AVGs9Pw82MVOAxA_nOzU9I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/263033-Best-Keto-Bread-074-4x3-9a1f3c531b12420cb9472daed8973d58.jpg"
@@ -3793,59 +3914,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263033/best-keto-bread/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Best Keto Bread</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n7 large eggs, at room temperature\n\n\n½ cup butter, melted and cooled\n\n\n2 tablespoons olive oil\n\n\n2 cups blanched almond flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon xanthan gum\n\n\n½ teaspoon sea salt"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n7 large eggs, at room temperature\n\n\n½ cup butter, melted and cooled\n\n\n2 tablespoons olive oil\n\n\n2 cups blanched almond flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon xanthan gum\n\n\n½ teaspoon sea salt'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a silicone loaf pan with cooking spray."},{"recipe_directions":"Whisk eggs in a bowl until smooth and creamy, about 3 minutes. Add melted butter and olive oil; mix until well combined."},{"recipe_directions":"Combine almond flour, baking powder, xanthan gum, and salt in a separate bowl; mix well. Add gradually to the egg mixture, mixing well until a thick batter is formed."},{"recipe_directions":"Pour batter into the prepared pan and smooth the top with a spatula."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 45 minutes."},{"recipe_directions":"Make sure the eggs are at room temperature; this will help the bread be airy and make it taste better."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"247\nCalories\n\n\n23g \nFat\n\n\n5g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656853-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l26nIJzyp5rQ9FcWXENv91bY-x0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/232930-ddmfs-cauliflower-pizza-crust-4X3-0049-cf310c2f66b94d8481564e5b61001076.jpg"
@@ -3859,59 +3976,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232930/cauliflower-pizza-crust/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Cauliflower Pizza Crust</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ head cauliflower, coarsely chopped\n\n\n½ cup shredded Italian cheese blend\n\n\n¼ cup chopped fresh parsley\n\n\n1 large egg\n\n\n1 teaspoon chopped garlic\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ head cauliflower, coarsely chopped\n\n\n½ cup shredded Italian cheese blend\n\n\n¼ cup chopped fresh parsley\n\n\n1 large egg\n\n\n1 teaspoon chopped garlic\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cauliflower pieces through the feeding tube of the food processor using the grating blade; pulse until all the cauliflower is shredded."},{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add cauliflower, cover, and steam until tender, about 15 minutes. Transfer cauliflower to a large bowl and refrigerate, stirring occasionally, until cooled, about 15 minutes."},{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Line a baking sheet with parchment paper or a silicone mat."},{"recipe_directions":"Stir Italian cheese blend, parsley, egg, garlic, salt, and pepper into cauliflower until evenly incorporated."},{"recipe_directions":"Pour mixture onto the prepared baking sheet; press and shape into a pizza crust."},{"recipe_directions":"Bake in the preheated oven until lightly browned, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pizza Dough and Crust Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n4g \nFat\n\n\n3g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656857-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1Q1Uuqr7QZK8lkzPoKAx510J-hw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/9088917-58151af8dd1a42338737143f243f04be.jpg"
@@ -3924,59 +4037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283581/almond-flour-blueberry-muffins/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Almond Flour Blueberry Muffins</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups finely ground almond flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup coconut oil, melted and cooled\n\n\n¼ cup pure maple syrup\n\n\n3 large eggs\n\n\n1 tablespoon lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n1 cup frozen blueberries"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups finely ground almond flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup coconut oil, melted and cooled\n\n\n¼ cup pure maple syrup\n\n\n3 large eggs\n\n\n1 tablespoon lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n1 cup frozen blueberries'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a 12-cup muffin tin with paper liners."},{"recipe_directions":"Whisk almond flour, baking soda, and salt together in a large bowl. Add coconut oil, maple syrup, eggs, lemon zest, and vanilla; mix until combined. Fold in frozen blueberries and spoon into the prepared muffin cups."},{"recipe_directions":"Bake in the preheated oven until tops spring back when lightly pressed, 18 to 20 minutes. Cool in the tin for 5 minutes. Transfer to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Blueberry Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"203\nCalories\n\n\n16g \nFat\n\n\n11g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656861-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ukHc_gWDX-CAWh3EW5QXCrD_xjg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(493x0:495x2):format(webp)/9441739-d6b30d0634e54a50984451b9b8c1f3d6.jpg"
@@ -3989,59 +4098,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259762/gluten-free-bread-in-a-bread-machine/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Gluten-Free Bread in a Bread Machine</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs 40 mins\n\n\nServings:\n8 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups warm water\n\n\n2 large eggs\n\n\n1 ½ tablespoons vegetable oil\n\n\n1 teaspoon cider vinegar\n\n\n2 ½ cups gluten-free all-purpose baking flour\n\n\n2 teaspoons xanthan gum\n\n\n1 teaspoon salt\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon active dry yeast"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups warm water\n\n\n2 large eggs\n\n\n1 ½ tablespoons vegetable oil\n\n\n1 teaspoon cider vinegar\n\n\n2 ½ cups gluten-free all-purpose baking flour\n\n\n2 teaspoons xanthan gum\n\n\n1 teaspoon salt\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon active dry yeast'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place water, eggs, oil, vinegar, flour, xanthan gum, salt, sugar, and yeast, in that order, in a bread machine."},{"recipe_directions":"Run Basic cycle and select Light or Medium for the crust."},{"recipe_directions":"Remove when cycle ends. Cool completely before slicing."},{"recipe_directions":"Place ingredients into a bread machine in the order listed in the recipe steps, or follow the order recommended by your machine's manufacturer if different. Timing may depend on the manufacturer's instructions as well."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"198\nCalories\n\n\n5g \nFat\n\n\n35g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656864-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1755/healthy-recipes/gluten-free/bread/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W1OO-RsRSqU5tYNpVnrGcAktGgQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5192971-dfb57819b2374fdabed1826dac1c7431.jpg"
@@ -4054,42 +4159,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263032/90-second-keto-bread-in-a-mug/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>90-Second Keto Bread in a Mug</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n2 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n9 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n⅓ cup blanched almond flour\n\n\n1  egg\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n⅓ cup blanched almond flour\n\n\n1  egg\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Microwave butter in a microwave-safe mug until melted, about 15 seconds. Swirl the mug to coat with butter."},{"recipe_directions":"Add almond flour, egg, baking powder, and salt to the mug; whisk until smooth."},{"recipe_directions":"Microwave on high until set, about 90 seconds. Let cool for 2 minutes before slicing."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Keto Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"408\nCalories\n\n\n36g \nFat\n\n\n10g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>